--- a/application/modules/charts/models/tmp/lab_performance.xlsx
+++ b/application/modules/charts/models/tmp/lab_performance.xlsx
@@ -476,1036 +476,1036 @@
   <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.7091836734694" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18.7091836734694" customWidth="true" style="0"/>
-    <col min="3" max="3" width="23.0561224489796" customWidth="true" style="0"/>
-    <col min="4" max="4" width="34.3163265306122" customWidth="true" style="0"/>
-    <col min="5" max="5" width="25.4234693877551" customWidth="true" style="0"/>
-    <col min="6" max="6" width="29.4183673469388" customWidth="true" style="0"/>
-    <col min="7" max="7" width="30.7040816326531" customWidth="true" style="0"/>
-    <col min="8" max="8" width="30.7040816326531" customWidth="true" style="0"/>
-    <col min="9" max="9" width="21.7091836734694" customWidth="true" style="0"/>
-    <col min="10" max="10" width="21.5714285714286" customWidth="true" style="0"/>
-    <col min="11" max="11" width="12.8622448979592" customWidth="true" style="0"/>
-    <col min="12" max="12" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="13" max="13" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="14" max="14" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="15" max="15" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="16" max="16" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="17" max="17" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="18" max="18" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="19" max="19" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="20" max="20" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="21" max="21" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="22" max="22" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="23" max="23" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="24" max="24" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="25" max="25" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="26" max="26" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="27" max="27" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="28" max="28" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="29" max="29" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="30" max="30" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="31" max="31" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="32" max="32" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="33" max="33" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="34" max="34" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="35" max="35" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="36" max="36" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="37" max="37" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="38" max="38" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="39" max="39" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="40" max="40" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="41" max="41" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="42" max="42" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="43" max="43" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="44" max="44" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="45" max="45" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="46" max="46" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="47" max="47" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="48" max="48" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="49" max="49" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="50" max="50" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="51" max="51" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="52" max="52" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="53" max="53" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="54" max="54" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="55" max="55" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="56" max="56" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="57" max="57" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="58" max="58" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="59" max="59" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="60" max="60" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="61" max="61" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="62" max="62" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="63" max="63" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="64" max="64" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="65" max="65" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="66" max="66" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="67" max="67" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="68" max="68" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="69" max="69" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="70" max="70" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="71" max="71" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="72" max="72" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="73" max="73" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="74" max="74" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="75" max="75" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="76" max="76" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="77" max="77" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="78" max="78" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="79" max="79" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="80" max="80" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="81" max="81" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="82" max="82" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="83" max="83" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="84" max="84" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="85" max="85" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="86" max="86" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="87" max="87" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="88" max="88" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="89" max="89" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="90" max="90" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="91" max="91" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="92" max="92" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="93" max="93" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="94" max="94" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="95" max="95" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="96" max="96" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="97" max="97" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="98" max="98" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="99" max="99" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="100" max="100" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="101" max="101" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="102" max="102" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="103" max="103" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="104" max="104" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="105" max="105" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="106" max="106" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="107" max="107" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="108" max="108" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="109" max="109" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="110" max="110" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="111" max="111" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="112" max="112" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="113" max="113" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="114" max="114" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="115" max="115" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="116" max="116" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="117" max="117" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="118" max="118" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="119" max="119" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="120" max="120" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="121" max="121" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="122" max="122" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="123" max="123" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="124" max="124" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="125" max="125" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="126" max="126" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="127" max="127" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="128" max="128" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="129" max="129" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="130" max="130" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="131" max="131" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="132" max="132" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="133" max="133" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="134" max="134" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="135" max="135" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="136" max="136" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="137" max="137" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="138" max="138" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="139" max="139" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="140" max="140" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="141" max="141" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="142" max="142" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="143" max="143" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="144" max="144" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="145" max="145" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="146" max="146" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="147" max="147" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="148" max="148" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="149" max="149" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="150" max="150" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="151" max="151" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="152" max="152" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="153" max="153" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="154" max="154" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="155" max="155" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="156" max="156" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="157" max="157" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="158" max="158" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="159" max="159" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="160" max="160" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="161" max="161" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="162" max="162" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="163" max="163" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="164" max="164" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="165" max="165" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="166" max="166" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="167" max="167" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="168" max="168" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="169" max="169" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="170" max="170" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="171" max="171" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="172" max="172" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="173" max="173" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="174" max="174" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="175" max="175" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="176" max="176" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="177" max="177" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="178" max="178" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="179" max="179" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="180" max="180" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="181" max="181" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="182" max="182" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="183" max="183" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="184" max="184" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="185" max="185" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="186" max="186" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="187" max="187" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="188" max="188" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="189" max="189" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="190" max="190" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="191" max="191" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="192" max="192" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="193" max="193" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="194" max="194" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="195" max="195" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="196" max="196" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="197" max="197" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="198" max="198" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="199" max="199" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="200" max="200" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="201" max="201" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="202" max="202" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="203" max="203" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="204" max="204" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="205" max="205" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="206" max="206" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="207" max="207" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="208" max="208" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="209" max="209" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="210" max="210" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="211" max="211" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="212" max="212" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="213" max="213" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="214" max="214" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="215" max="215" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="216" max="216" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="217" max="217" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="218" max="218" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="219" max="219" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="220" max="220" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="221" max="221" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="222" max="222" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="223" max="223" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="224" max="224" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="225" max="225" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="226" max="226" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="227" max="227" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="228" max="228" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="229" max="229" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="230" max="230" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="231" max="231" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="232" max="232" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="233" max="233" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="234" max="234" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="235" max="235" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="236" max="236" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="237" max="237" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="238" max="238" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="239" max="239" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="240" max="240" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="241" max="241" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="242" max="242" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="243" max="243" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="244" max="244" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="245" max="245" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="246" max="246" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="247" max="247" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="248" max="248" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="249" max="249" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="250" max="250" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="251" max="251" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="252" max="252" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="253" max="253" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="254" max="254" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="255" max="255" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="256" max="256" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="257" max="257" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="258" max="258" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="259" max="259" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="260" max="260" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="261" max="261" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="262" max="262" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="263" max="263" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="264" max="264" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="265" max="265" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="266" max="266" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="267" max="267" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="268" max="268" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="269" max="269" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="270" max="270" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="271" max="271" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="272" max="272" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="273" max="273" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="274" max="274" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="275" max="275" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="276" max="276" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="277" max="277" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="278" max="278" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="279" max="279" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="280" max="280" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="281" max="281" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="282" max="282" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="283" max="283" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="284" max="284" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="285" max="285" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="286" max="286" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="287" max="287" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="288" max="288" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="289" max="289" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="290" max="290" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="291" max="291" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="292" max="292" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="293" max="293" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="294" max="294" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="295" max="295" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="296" max="296" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="297" max="297" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="298" max="298" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="299" max="299" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="300" max="300" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="301" max="301" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="302" max="302" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="303" max="303" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="304" max="304" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="305" max="305" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="306" max="306" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="307" max="307" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="308" max="308" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="309" max="309" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="310" max="310" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="311" max="311" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="312" max="312" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="313" max="313" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="314" max="314" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="315" max="315" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="316" max="316" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="317" max="317" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="318" max="318" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="319" max="319" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="320" max="320" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="321" max="321" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="322" max="322" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="323" max="323" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="324" max="324" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="325" max="325" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="326" max="326" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="327" max="327" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="328" max="328" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="329" max="329" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="330" max="330" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="331" max="331" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="332" max="332" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="333" max="333" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="334" max="334" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="335" max="335" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="336" max="336" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="337" max="337" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="338" max="338" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="339" max="339" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="340" max="340" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="341" max="341" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="342" max="342" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="343" max="343" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="344" max="344" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="345" max="345" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="346" max="346" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="347" max="347" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="348" max="348" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="349" max="349" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="350" max="350" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="351" max="351" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="352" max="352" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="353" max="353" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="354" max="354" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="355" max="355" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="356" max="356" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="357" max="357" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="358" max="358" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="359" max="359" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="360" max="360" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="361" max="361" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="362" max="362" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="363" max="363" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="364" max="364" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="365" max="365" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="366" max="366" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="367" max="367" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="368" max="368" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="369" max="369" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="370" max="370" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="371" max="371" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="372" max="372" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="373" max="373" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="374" max="374" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="375" max="375" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="376" max="376" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="377" max="377" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="378" max="378" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="379" max="379" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="380" max="380" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="381" max="381" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="382" max="382" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="383" max="383" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="384" max="384" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="385" max="385" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="386" max="386" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="387" max="387" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="388" max="388" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="389" max="389" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="390" max="390" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="391" max="391" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="392" max="392" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="393" max="393" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="394" max="394" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="395" max="395" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="396" max="396" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="397" max="397" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="398" max="398" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="399" max="399" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="400" max="400" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="401" max="401" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="402" max="402" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="403" max="403" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="404" max="404" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="405" max="405" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="406" max="406" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="407" max="407" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="408" max="408" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="409" max="409" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="410" max="410" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="411" max="411" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="412" max="412" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="413" max="413" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="414" max="414" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="415" max="415" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="416" max="416" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="417" max="417" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="418" max="418" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="419" max="419" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="420" max="420" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="421" max="421" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="422" max="422" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="423" max="423" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="424" max="424" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="425" max="425" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="426" max="426" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="427" max="427" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="428" max="428" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="429" max="429" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="430" max="430" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="431" max="431" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="432" max="432" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="433" max="433" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="434" max="434" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="435" max="435" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="436" max="436" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="437" max="437" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="438" max="438" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="439" max="439" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="440" max="440" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="441" max="441" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="442" max="442" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="443" max="443" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="444" max="444" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="445" max="445" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="446" max="446" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="447" max="447" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="448" max="448" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="449" max="449" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="450" max="450" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="451" max="451" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="452" max="452" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="453" max="453" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="454" max="454" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="455" max="455" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="456" max="456" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="457" max="457" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="458" max="458" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="459" max="459" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="460" max="460" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="461" max="461" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="462" max="462" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="463" max="463" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="464" max="464" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="465" max="465" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="466" max="466" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="467" max="467" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="468" max="468" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="469" max="469" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="470" max="470" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="471" max="471" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="472" max="472" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="473" max="473" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="474" max="474" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="475" max="475" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="476" max="476" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="477" max="477" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="478" max="478" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="479" max="479" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="480" max="480" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="481" max="481" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="482" max="482" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="483" max="483" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="484" max="484" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="485" max="485" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="486" max="486" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="487" max="487" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="488" max="488" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="489" max="489" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="490" max="490" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="491" max="491" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="492" max="492" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="493" max="493" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="494" max="494" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="495" max="495" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="496" max="496" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="497" max="497" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="498" max="498" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="499" max="499" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="500" max="500" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="501" max="501" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="502" max="502" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="503" max="503" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="504" max="504" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="505" max="505" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="506" max="506" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="507" max="507" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="508" max="508" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="509" max="509" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="510" max="510" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="511" max="511" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="512" max="512" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="513" max="513" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="514" max="514" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="515" max="515" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="516" max="516" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="517" max="517" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="518" max="518" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="519" max="519" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="520" max="520" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="521" max="521" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="522" max="522" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="523" max="523" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="524" max="524" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="525" max="525" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="526" max="526" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="527" max="527" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="528" max="528" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="529" max="529" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="530" max="530" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="531" max="531" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="532" max="532" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="533" max="533" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="534" max="534" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="535" max="535" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="536" max="536" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="537" max="537" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="538" max="538" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="539" max="539" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="540" max="540" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="541" max="541" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="542" max="542" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="543" max="543" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="544" max="544" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="545" max="545" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="546" max="546" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="547" max="547" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="548" max="548" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="549" max="549" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="550" max="550" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="551" max="551" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="552" max="552" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="553" max="553" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="554" max="554" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="555" max="555" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="556" max="556" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="557" max="557" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="558" max="558" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="559" max="559" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="560" max="560" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="561" max="561" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="562" max="562" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="563" max="563" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="564" max="564" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="565" max="565" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="566" max="566" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="567" max="567" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="568" max="568" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="569" max="569" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="570" max="570" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="571" max="571" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="572" max="572" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="573" max="573" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="574" max="574" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="575" max="575" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="576" max="576" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="577" max="577" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="578" max="578" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="579" max="579" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="580" max="580" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="581" max="581" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="582" max="582" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="583" max="583" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="584" max="584" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="585" max="585" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="586" max="586" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="587" max="587" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="588" max="588" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="589" max="589" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="590" max="590" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="591" max="591" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="592" max="592" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="593" max="593" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="594" max="594" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="595" max="595" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="596" max="596" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="597" max="597" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="598" max="598" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="599" max="599" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="600" max="600" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="601" max="601" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="602" max="602" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="603" max="603" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="604" max="604" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="605" max="605" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="606" max="606" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="607" max="607" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="608" max="608" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="609" max="609" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="610" max="610" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="611" max="611" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="612" max="612" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="613" max="613" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="614" max="614" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="615" max="615" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="616" max="616" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="617" max="617" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="618" max="618" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="619" max="619" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="620" max="620" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="621" max="621" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="622" max="622" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="623" max="623" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="624" max="624" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="625" max="625" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="626" max="626" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="627" max="627" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="628" max="628" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="629" max="629" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="630" max="630" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="631" max="631" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="632" max="632" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="633" max="633" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="634" max="634" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="635" max="635" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="636" max="636" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="637" max="637" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="638" max="638" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="639" max="639" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="640" max="640" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="641" max="641" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="642" max="642" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="643" max="643" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="644" max="644" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="645" max="645" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="646" max="646" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="647" max="647" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="648" max="648" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="649" max="649" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="650" max="650" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="651" max="651" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="652" max="652" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="653" max="653" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="654" max="654" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="655" max="655" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="656" max="656" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="657" max="657" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="658" max="658" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="659" max="659" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="660" max="660" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="661" max="661" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="662" max="662" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="663" max="663" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="664" max="664" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="665" max="665" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="666" max="666" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="667" max="667" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="668" max="668" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="669" max="669" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="670" max="670" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="671" max="671" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="672" max="672" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="673" max="673" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="674" max="674" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="675" max="675" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="676" max="676" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="677" max="677" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="678" max="678" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="679" max="679" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="680" max="680" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="681" max="681" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="682" max="682" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="683" max="683" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="684" max="684" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="685" max="685" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="686" max="686" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="687" max="687" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="688" max="688" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="689" max="689" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="690" max="690" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="691" max="691" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="692" max="692" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="693" max="693" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="694" max="694" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="695" max="695" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="696" max="696" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="697" max="697" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="698" max="698" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="699" max="699" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="700" max="700" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="701" max="701" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="702" max="702" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="703" max="703" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="704" max="704" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="705" max="705" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="706" max="706" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="707" max="707" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="708" max="708" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="709" max="709" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="710" max="710" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="711" max="711" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="712" max="712" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="713" max="713" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="714" max="714" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="715" max="715" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="716" max="716" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="717" max="717" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="718" max="718" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="719" max="719" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="720" max="720" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="721" max="721" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="722" max="722" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="723" max="723" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="724" max="724" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="725" max="725" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="726" max="726" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="727" max="727" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="728" max="728" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="729" max="729" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="730" max="730" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="731" max="731" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="732" max="732" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="733" max="733" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="734" max="734" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="735" max="735" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="736" max="736" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="737" max="737" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="738" max="738" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="739" max="739" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="740" max="740" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="741" max="741" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="742" max="742" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="743" max="743" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="744" max="744" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="745" max="745" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="746" max="746" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="747" max="747" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="748" max="748" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="749" max="749" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="750" max="750" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="751" max="751" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="752" max="752" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="753" max="753" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="754" max="754" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="755" max="755" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="756" max="756" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="757" max="757" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="758" max="758" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="759" max="759" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="760" max="760" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="761" max="761" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="762" max="762" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="763" max="763" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="764" max="764" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="765" max="765" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="766" max="766" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="767" max="767" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="768" max="768" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="769" max="769" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="770" max="770" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="771" max="771" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="772" max="772" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="773" max="773" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="774" max="774" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="775" max="775" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="776" max="776" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="777" max="777" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="778" max="778" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="779" max="779" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="780" max="780" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="781" max="781" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="782" max="782" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="783" max="783" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="784" max="784" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="785" max="785" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="786" max="786" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="787" max="787" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="788" max="788" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="789" max="789" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="790" max="790" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="791" max="791" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="792" max="792" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="793" max="793" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="794" max="794" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="795" max="795" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="796" max="796" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="797" max="797" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="798" max="798" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="799" max="799" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="800" max="800" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="801" max="801" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="802" max="802" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="803" max="803" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="804" max="804" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="805" max="805" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="806" max="806" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="807" max="807" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="808" max="808" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="809" max="809" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="810" max="810" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="811" max="811" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="812" max="812" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="813" max="813" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="814" max="814" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="815" max="815" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="816" max="816" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="817" max="817" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="818" max="818" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="819" max="819" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="820" max="820" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="821" max="821" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="822" max="822" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="823" max="823" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="824" max="824" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="825" max="825" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="826" max="826" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="827" max="827" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="828" max="828" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="829" max="829" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="830" max="830" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="831" max="831" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="832" max="832" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="833" max="833" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="834" max="834" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="835" max="835" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="836" max="836" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="837" max="837" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="838" max="838" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="839" max="839" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="840" max="840" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="841" max="841" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="842" max="842" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="843" max="843" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="844" max="844" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="845" max="845" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="846" max="846" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="847" max="847" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="848" max="848" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="849" max="849" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="850" max="850" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="851" max="851" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="852" max="852" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="853" max="853" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="854" max="854" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="855" max="855" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="856" max="856" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="857" max="857" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="858" max="858" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="859" max="859" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="860" max="860" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="861" max="861" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="862" max="862" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="863" max="863" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="864" max="864" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="865" max="865" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="866" max="866" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="867" max="867" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="868" max="868" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="869" max="869" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="870" max="870" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="871" max="871" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="872" max="872" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="873" max="873" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="874" max="874" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="875" max="875" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="876" max="876" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="877" max="877" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="878" max="878" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="879" max="879" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="880" max="880" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="881" max="881" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="882" max="882" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="883" max="883" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="884" max="884" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="885" max="885" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="886" max="886" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="887" max="887" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="888" max="888" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="889" max="889" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="890" max="890" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="891" max="891" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="892" max="892" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="893" max="893" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="894" max="894" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="895" max="895" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="896" max="896" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="897" max="897" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="898" max="898" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="899" max="899" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="900" max="900" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="901" max="901" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="902" max="902" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="903" max="903" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="904" max="904" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="905" max="905" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="906" max="906" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="907" max="907" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="908" max="908" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="909" max="909" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="910" max="910" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="911" max="911" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="912" max="912" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="913" max="913" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="914" max="914" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="915" max="915" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="916" max="916" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="917" max="917" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="918" max="918" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="919" max="919" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="920" max="920" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="921" max="921" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="922" max="922" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="923" max="923" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="924" max="924" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="925" max="925" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="926" max="926" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="927" max="927" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="928" max="928" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="929" max="929" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="930" max="930" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="931" max="931" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="932" max="932" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="933" max="933" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="934" max="934" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="935" max="935" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="936" max="936" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="937" max="937" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="938" max="938" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="939" max="939" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="940" max="940" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="941" max="941" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="942" max="942" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="943" max="943" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="944" max="944" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="945" max="945" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="946" max="946" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="947" max="947" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="948" max="948" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="949" max="949" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="950" max="950" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="951" max="951" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="952" max="952" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="953" max="953" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="954" max="954" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="955" max="955" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="956" max="956" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="957" max="957" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="958" max="958" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="959" max="959" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="960" max="960" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="961" max="961" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="962" max="962" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="963" max="963" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="964" max="964" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="965" max="965" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="966" max="966" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="967" max="967" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="968" max="968" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="969" max="969" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="970" max="970" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="971" max="971" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="972" max="972" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="973" max="973" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="974" max="974" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="975" max="975" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="976" max="976" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="977" max="977" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="978" max="978" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="979" max="979" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="980" max="980" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="981" max="981" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="982" max="982" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="983" max="983" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="984" max="984" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="985" max="985" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="986" max="986" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="987" max="987" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="988" max="988" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="989" max="989" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="990" max="990" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="991" max="991" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="992" max="992" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="993" max="993" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="994" max="994" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="995" max="995" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="996" max="996" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="997" max="997" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="998" max="998" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="999" max="999" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1000" max="1000" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1001" max="1001" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1002" max="1002" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1003" max="1003" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1004" max="1004" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1005" max="1005" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1006" max="1006" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1007" max="1007" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1008" max="1008" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1009" max="1009" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1010" max="1010" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1011" max="1011" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1012" max="1012" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1013" max="1013" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1014" max="1014" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1015" max="1015" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1016" max="1016" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1017" max="1017" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1018" max="1018" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1019" max="1019" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1020" max="1020" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1021" max="1021" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1022" max="1022" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1023" max="1023" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1024" max="1024" width="11.5714285714286" customWidth="true" style="0"/>
-    <col min="1025" max="1025" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1" max="1" width="18.709183673469" customWidth="true" style="0"/>
+    <col min="2" max="2" width="18.709183673469" customWidth="true" style="0"/>
+    <col min="3" max="3" width="23.05612244898" customWidth="true" style="0"/>
+    <col min="4" max="4" width="34.316326530612" customWidth="true" style="0"/>
+    <col min="5" max="5" width="25.423469387755" customWidth="true" style="0"/>
+    <col min="6" max="6" width="29.418367346939" customWidth="true" style="0"/>
+    <col min="7" max="7" width="30.704081632653" customWidth="true" style="0"/>
+    <col min="8" max="8" width="30.704081632653" customWidth="true" style="0"/>
+    <col min="9" max="9" width="21.709183673469" customWidth="true" style="0"/>
+    <col min="10" max="10" width="21.571428571429" customWidth="true" style="0"/>
+    <col min="11" max="11" width="12.862244897959" customWidth="true" style="0"/>
+    <col min="12" max="12" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="13" max="13" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="14" max="14" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="15" max="15" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="16" max="16" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="17" max="17" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="18" max="18" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="19" max="19" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="20" max="20" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="21" max="21" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="22" max="22" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="23" max="23" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="24" max="24" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="25" max="25" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="26" max="26" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="27" max="27" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="28" max="28" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="29" max="29" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="30" max="30" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="31" max="31" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="32" max="32" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="33" max="33" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="34" max="34" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="35" max="35" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="36" max="36" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="37" max="37" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="38" max="38" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="39" max="39" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="40" max="40" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="41" max="41" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="42" max="42" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="43" max="43" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="44" max="44" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="45" max="45" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="46" max="46" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="47" max="47" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="48" max="48" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="49" max="49" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="50" max="50" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="51" max="51" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="52" max="52" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="53" max="53" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="54" max="54" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="55" max="55" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="56" max="56" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="57" max="57" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="58" max="58" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="59" max="59" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="60" max="60" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="61" max="61" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="62" max="62" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="63" max="63" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="64" max="64" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="65" max="65" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="66" max="66" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="67" max="67" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="68" max="68" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="69" max="69" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="70" max="70" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="71" max="71" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="72" max="72" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="73" max="73" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="74" max="74" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="75" max="75" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="76" max="76" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="77" max="77" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="78" max="78" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="79" max="79" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="80" max="80" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="81" max="81" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="82" max="82" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="83" max="83" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="84" max="84" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="85" max="85" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="86" max="86" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="87" max="87" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="88" max="88" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="89" max="89" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="90" max="90" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="91" max="91" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="92" max="92" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="93" max="93" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="94" max="94" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="95" max="95" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="96" max="96" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="97" max="97" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="98" max="98" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="99" max="99" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="100" max="100" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="101" max="101" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="102" max="102" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="103" max="103" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="104" max="104" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="105" max="105" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="106" max="106" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="107" max="107" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="108" max="108" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="109" max="109" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="110" max="110" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="111" max="111" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="112" max="112" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="113" max="113" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="114" max="114" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="115" max="115" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="116" max="116" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="117" max="117" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="118" max="118" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="119" max="119" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="120" max="120" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="121" max="121" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="122" max="122" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="123" max="123" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="124" max="124" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="125" max="125" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="126" max="126" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="127" max="127" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="128" max="128" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="129" max="129" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="130" max="130" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="131" max="131" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="132" max="132" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="133" max="133" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="134" max="134" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="135" max="135" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="136" max="136" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="137" max="137" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="138" max="138" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="139" max="139" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="140" max="140" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="141" max="141" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="142" max="142" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="143" max="143" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="144" max="144" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="145" max="145" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="146" max="146" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="147" max="147" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="148" max="148" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="149" max="149" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="150" max="150" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="151" max="151" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="152" max="152" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="153" max="153" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="154" max="154" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="155" max="155" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="156" max="156" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="157" max="157" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="158" max="158" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="159" max="159" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="160" max="160" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="161" max="161" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="162" max="162" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="163" max="163" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="164" max="164" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="165" max="165" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="166" max="166" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="167" max="167" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="168" max="168" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="169" max="169" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="170" max="170" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="171" max="171" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="172" max="172" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="173" max="173" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="174" max="174" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="175" max="175" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="176" max="176" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="177" max="177" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="178" max="178" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="179" max="179" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="180" max="180" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="181" max="181" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="182" max="182" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="183" max="183" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="184" max="184" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="185" max="185" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="186" max="186" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="187" max="187" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="188" max="188" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="189" max="189" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="190" max="190" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="191" max="191" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="192" max="192" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="193" max="193" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="194" max="194" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="195" max="195" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="196" max="196" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="197" max="197" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="198" max="198" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="199" max="199" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="200" max="200" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="201" max="201" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="202" max="202" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="203" max="203" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="204" max="204" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="205" max="205" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="206" max="206" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="207" max="207" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="208" max="208" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="209" max="209" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="210" max="210" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="211" max="211" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="212" max="212" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="213" max="213" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="214" max="214" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="215" max="215" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="216" max="216" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="217" max="217" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="218" max="218" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="219" max="219" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="220" max="220" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="221" max="221" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="222" max="222" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="223" max="223" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="224" max="224" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="225" max="225" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="226" max="226" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="227" max="227" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="228" max="228" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="229" max="229" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="230" max="230" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="231" max="231" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="232" max="232" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="233" max="233" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="234" max="234" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="235" max="235" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="236" max="236" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="237" max="237" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="238" max="238" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="239" max="239" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="240" max="240" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="241" max="241" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="242" max="242" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="243" max="243" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="244" max="244" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="245" max="245" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="246" max="246" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="247" max="247" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="248" max="248" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="249" max="249" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="250" max="250" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="251" max="251" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="252" max="252" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="253" max="253" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="254" max="254" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="255" max="255" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="256" max="256" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="257" max="257" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="258" max="258" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="259" max="259" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="260" max="260" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="261" max="261" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="262" max="262" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="263" max="263" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="264" max="264" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="265" max="265" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="266" max="266" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="267" max="267" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="268" max="268" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="269" max="269" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="270" max="270" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="271" max="271" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="272" max="272" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="273" max="273" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="274" max="274" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="275" max="275" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="276" max="276" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="277" max="277" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="278" max="278" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="279" max="279" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="280" max="280" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="281" max="281" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="282" max="282" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="283" max="283" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="284" max="284" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="285" max="285" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="286" max="286" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="287" max="287" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="288" max="288" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="289" max="289" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="290" max="290" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="291" max="291" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="292" max="292" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="293" max="293" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="294" max="294" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="295" max="295" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="296" max="296" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="297" max="297" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="298" max="298" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="299" max="299" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="300" max="300" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="301" max="301" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="302" max="302" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="303" max="303" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="304" max="304" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="305" max="305" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="306" max="306" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="307" max="307" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="308" max="308" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="309" max="309" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="310" max="310" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="311" max="311" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="312" max="312" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="313" max="313" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="314" max="314" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="315" max="315" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="316" max="316" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="317" max="317" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="318" max="318" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="319" max="319" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="320" max="320" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="321" max="321" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="322" max="322" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="323" max="323" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="324" max="324" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="325" max="325" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="326" max="326" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="327" max="327" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="328" max="328" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="329" max="329" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="330" max="330" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="331" max="331" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="332" max="332" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="333" max="333" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="334" max="334" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="335" max="335" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="336" max="336" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="337" max="337" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="338" max="338" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="339" max="339" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="340" max="340" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="341" max="341" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="342" max="342" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="343" max="343" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="344" max="344" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="345" max="345" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="346" max="346" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="347" max="347" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="348" max="348" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="349" max="349" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="350" max="350" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="351" max="351" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="352" max="352" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="353" max="353" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="354" max="354" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="355" max="355" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="356" max="356" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="357" max="357" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="358" max="358" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="359" max="359" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="360" max="360" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="361" max="361" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="362" max="362" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="363" max="363" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="364" max="364" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="365" max="365" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="366" max="366" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="367" max="367" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="368" max="368" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="369" max="369" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="370" max="370" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="371" max="371" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="372" max="372" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="373" max="373" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="374" max="374" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="375" max="375" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="376" max="376" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="377" max="377" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="378" max="378" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="379" max="379" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="380" max="380" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="381" max="381" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="382" max="382" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="383" max="383" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="384" max="384" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="385" max="385" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="386" max="386" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="387" max="387" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="388" max="388" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="389" max="389" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="390" max="390" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="391" max="391" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="392" max="392" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="393" max="393" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="394" max="394" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="395" max="395" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="396" max="396" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="397" max="397" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="398" max="398" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="399" max="399" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="400" max="400" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="401" max="401" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="402" max="402" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="403" max="403" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="404" max="404" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="405" max="405" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="406" max="406" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="407" max="407" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="408" max="408" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="409" max="409" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="410" max="410" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="411" max="411" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="412" max="412" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="413" max="413" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="414" max="414" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="415" max="415" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="416" max="416" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="417" max="417" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="418" max="418" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="419" max="419" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="420" max="420" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="421" max="421" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="422" max="422" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="423" max="423" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="424" max="424" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="425" max="425" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="426" max="426" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="427" max="427" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="428" max="428" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="429" max="429" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="430" max="430" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="431" max="431" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="432" max="432" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="433" max="433" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="434" max="434" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="435" max="435" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="436" max="436" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="437" max="437" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="438" max="438" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="439" max="439" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="440" max="440" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="441" max="441" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="442" max="442" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="443" max="443" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="444" max="444" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="445" max="445" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="446" max="446" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="447" max="447" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="448" max="448" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="449" max="449" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="450" max="450" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="451" max="451" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="452" max="452" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="453" max="453" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="454" max="454" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="455" max="455" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="456" max="456" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="457" max="457" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="458" max="458" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="459" max="459" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="460" max="460" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="461" max="461" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="462" max="462" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="463" max="463" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="464" max="464" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="465" max="465" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="466" max="466" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="467" max="467" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="468" max="468" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="469" max="469" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="470" max="470" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="471" max="471" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="472" max="472" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="473" max="473" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="474" max="474" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="475" max="475" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="476" max="476" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="477" max="477" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="478" max="478" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="479" max="479" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="480" max="480" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="481" max="481" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="482" max="482" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="483" max="483" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="484" max="484" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="485" max="485" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="486" max="486" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="487" max="487" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="488" max="488" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="489" max="489" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="490" max="490" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="491" max="491" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="492" max="492" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="493" max="493" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="494" max="494" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="495" max="495" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="496" max="496" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="497" max="497" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="498" max="498" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="499" max="499" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="500" max="500" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="501" max="501" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="502" max="502" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="503" max="503" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="504" max="504" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="505" max="505" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="506" max="506" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="507" max="507" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="508" max="508" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="509" max="509" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="510" max="510" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="511" max="511" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="512" max="512" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="513" max="513" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="514" max="514" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="515" max="515" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="516" max="516" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="517" max="517" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="518" max="518" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="519" max="519" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="520" max="520" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="521" max="521" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="522" max="522" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="523" max="523" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="524" max="524" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="525" max="525" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="526" max="526" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="527" max="527" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="528" max="528" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="529" max="529" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="530" max="530" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="531" max="531" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="532" max="532" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="533" max="533" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="534" max="534" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="535" max="535" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="536" max="536" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="537" max="537" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="538" max="538" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="539" max="539" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="540" max="540" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="541" max="541" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="542" max="542" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="543" max="543" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="544" max="544" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="545" max="545" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="546" max="546" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="547" max="547" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="548" max="548" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="549" max="549" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="550" max="550" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="551" max="551" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="552" max="552" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="553" max="553" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="554" max="554" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="555" max="555" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="556" max="556" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="557" max="557" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="558" max="558" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="559" max="559" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="560" max="560" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="561" max="561" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="562" max="562" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="563" max="563" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="564" max="564" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="565" max="565" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="566" max="566" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="567" max="567" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="568" max="568" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="569" max="569" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="570" max="570" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="571" max="571" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="572" max="572" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="573" max="573" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="574" max="574" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="575" max="575" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="576" max="576" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="577" max="577" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="578" max="578" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="579" max="579" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="580" max="580" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="581" max="581" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="582" max="582" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="583" max="583" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="584" max="584" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="585" max="585" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="586" max="586" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="587" max="587" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="588" max="588" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="589" max="589" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="590" max="590" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="591" max="591" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="592" max="592" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="593" max="593" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="594" max="594" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="595" max="595" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="596" max="596" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="597" max="597" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="598" max="598" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="599" max="599" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="600" max="600" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="601" max="601" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="602" max="602" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="603" max="603" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="604" max="604" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="605" max="605" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="606" max="606" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="607" max="607" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="608" max="608" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="609" max="609" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="610" max="610" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="611" max="611" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="612" max="612" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="613" max="613" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="614" max="614" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="615" max="615" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="616" max="616" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="617" max="617" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="618" max="618" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="619" max="619" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="620" max="620" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="621" max="621" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="622" max="622" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="623" max="623" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="624" max="624" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="625" max="625" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="626" max="626" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="627" max="627" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="628" max="628" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="629" max="629" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="630" max="630" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="631" max="631" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="632" max="632" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="633" max="633" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="634" max="634" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="635" max="635" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="636" max="636" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="637" max="637" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="638" max="638" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="639" max="639" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="640" max="640" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="641" max="641" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="642" max="642" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="643" max="643" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="644" max="644" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="645" max="645" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="646" max="646" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="647" max="647" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="648" max="648" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="649" max="649" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="650" max="650" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="651" max="651" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="652" max="652" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="653" max="653" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="654" max="654" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="655" max="655" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="656" max="656" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="657" max="657" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="658" max="658" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="659" max="659" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="660" max="660" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="661" max="661" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="662" max="662" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="663" max="663" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="664" max="664" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="665" max="665" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="666" max="666" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="667" max="667" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="668" max="668" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="669" max="669" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="670" max="670" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="671" max="671" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="672" max="672" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="673" max="673" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="674" max="674" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="675" max="675" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="676" max="676" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="677" max="677" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="678" max="678" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="679" max="679" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="680" max="680" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="681" max="681" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="682" max="682" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="683" max="683" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="684" max="684" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="685" max="685" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="686" max="686" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="687" max="687" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="688" max="688" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="689" max="689" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="690" max="690" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="691" max="691" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="692" max="692" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="693" max="693" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="694" max="694" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="695" max="695" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="696" max="696" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="697" max="697" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="698" max="698" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="699" max="699" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="700" max="700" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="701" max="701" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="702" max="702" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="703" max="703" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="704" max="704" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="705" max="705" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="706" max="706" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="707" max="707" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="708" max="708" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="709" max="709" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="710" max="710" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="711" max="711" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="712" max="712" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="713" max="713" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="714" max="714" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="715" max="715" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="716" max="716" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="717" max="717" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="718" max="718" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="719" max="719" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="720" max="720" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="721" max="721" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="722" max="722" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="723" max="723" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="724" max="724" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="725" max="725" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="726" max="726" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="727" max="727" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="728" max="728" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="729" max="729" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="730" max="730" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="731" max="731" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="732" max="732" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="733" max="733" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="734" max="734" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="735" max="735" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="736" max="736" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="737" max="737" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="738" max="738" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="739" max="739" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="740" max="740" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="741" max="741" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="742" max="742" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="743" max="743" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="744" max="744" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="745" max="745" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="746" max="746" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="747" max="747" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="748" max="748" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="749" max="749" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="750" max="750" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="751" max="751" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="752" max="752" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="753" max="753" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="754" max="754" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="755" max="755" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="756" max="756" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="757" max="757" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="758" max="758" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="759" max="759" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="760" max="760" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="761" max="761" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="762" max="762" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="763" max="763" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="764" max="764" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="765" max="765" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="766" max="766" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="767" max="767" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="768" max="768" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="769" max="769" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="770" max="770" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="771" max="771" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="772" max="772" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="773" max="773" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="774" max="774" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="775" max="775" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="776" max="776" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="777" max="777" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="778" max="778" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="779" max="779" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="780" max="780" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="781" max="781" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="782" max="782" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="783" max="783" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="784" max="784" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="785" max="785" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="786" max="786" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="787" max="787" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="788" max="788" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="789" max="789" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="790" max="790" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="791" max="791" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="792" max="792" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="793" max="793" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="794" max="794" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="795" max="795" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="796" max="796" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="797" max="797" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="798" max="798" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="799" max="799" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="800" max="800" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="801" max="801" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="802" max="802" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="803" max="803" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="804" max="804" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="805" max="805" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="806" max="806" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="807" max="807" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="808" max="808" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="809" max="809" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="810" max="810" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="811" max="811" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="812" max="812" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="813" max="813" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="814" max="814" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="815" max="815" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="816" max="816" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="817" max="817" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="818" max="818" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="819" max="819" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="820" max="820" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="821" max="821" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="822" max="822" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="823" max="823" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="824" max="824" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="825" max="825" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="826" max="826" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="827" max="827" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="828" max="828" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="829" max="829" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="830" max="830" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="831" max="831" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="832" max="832" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="833" max="833" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="834" max="834" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="835" max="835" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="836" max="836" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="837" max="837" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="838" max="838" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="839" max="839" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="840" max="840" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="841" max="841" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="842" max="842" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="843" max="843" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="844" max="844" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="845" max="845" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="846" max="846" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="847" max="847" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="848" max="848" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="849" max="849" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="850" max="850" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="851" max="851" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="852" max="852" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="853" max="853" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="854" max="854" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="855" max="855" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="856" max="856" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="857" max="857" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="858" max="858" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="859" max="859" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="860" max="860" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="861" max="861" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="862" max="862" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="863" max="863" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="864" max="864" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="865" max="865" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="866" max="866" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="867" max="867" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="868" max="868" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="869" max="869" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="870" max="870" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="871" max="871" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="872" max="872" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="873" max="873" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="874" max="874" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="875" max="875" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="876" max="876" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="877" max="877" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="878" max="878" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="879" max="879" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="880" max="880" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="881" max="881" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="882" max="882" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="883" max="883" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="884" max="884" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="885" max="885" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="886" max="886" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="887" max="887" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="888" max="888" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="889" max="889" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="890" max="890" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="891" max="891" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="892" max="892" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="893" max="893" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="894" max="894" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="895" max="895" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="896" max="896" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="897" max="897" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="898" max="898" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="899" max="899" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="900" max="900" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="901" max="901" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="902" max="902" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="903" max="903" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="904" max="904" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="905" max="905" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="906" max="906" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="907" max="907" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="908" max="908" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="909" max="909" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="910" max="910" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="911" max="911" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="912" max="912" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="913" max="913" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="914" max="914" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="915" max="915" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="916" max="916" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="917" max="917" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="918" max="918" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="919" max="919" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="920" max="920" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="921" max="921" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="922" max="922" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="923" max="923" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="924" max="924" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="925" max="925" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="926" max="926" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="927" max="927" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="928" max="928" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="929" max="929" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="930" max="930" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="931" max="931" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="932" max="932" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="933" max="933" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="934" max="934" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="935" max="935" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="936" max="936" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="937" max="937" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="938" max="938" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="939" max="939" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="940" max="940" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="941" max="941" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="942" max="942" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="943" max="943" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="944" max="944" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="945" max="945" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="946" max="946" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="947" max="947" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="948" max="948" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="949" max="949" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="950" max="950" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="951" max="951" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="952" max="952" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="953" max="953" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="954" max="954" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="955" max="955" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="956" max="956" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="957" max="957" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="958" max="958" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="959" max="959" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="960" max="960" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="961" max="961" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="962" max="962" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="963" max="963" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="964" max="964" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="965" max="965" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="966" max="966" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="967" max="967" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="968" max="968" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="969" max="969" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="970" max="970" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="971" max="971" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="972" max="972" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="973" max="973" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="974" max="974" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="975" max="975" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="976" max="976" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="977" max="977" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="978" max="978" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="979" max="979" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="980" max="980" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="981" max="981" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="982" max="982" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="983" max="983" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="984" max="984" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="985" max="985" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="986" max="986" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="987" max="987" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="988" max="988" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="989" max="989" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="990" max="990" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="991" max="991" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="992" max="992" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="993" max="993" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="994" max="994" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="995" max="995" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="996" max="996" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="997" max="997" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="998" max="998" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="999" max="999" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1000" max="1000" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1001" max="1001" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1002" max="1002" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1003" max="1003" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1004" max="1004" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1005" max="1005" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1006" max="1006" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1007" max="1007" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1008" max="1008" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1009" max="1009" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1010" max="1010" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1011" max="1011" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1012" max="1012" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1013" max="1013" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1014" max="1014" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1015" max="1015" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1016" max="1016" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1017" max="1017" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1018" max="1018" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1019" max="1019" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1020" max="1020" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1021" max="1021" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1022" max="1022" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1023" max="1023" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1024" max="1024" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1025" max="1025" width="11.571428571429" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" customHeight="1" ht="12.8">
@@ -1585,11 +1585,9 @@
         <v>16</v>
       </c>
       <c r="B3" s="3">
-        <v>332.625</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4780</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C3"/>
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1605,7 +1603,9 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3"/>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3">
         <v>13404</v>
       </c>
@@ -2642,11 +2642,9 @@
         <v>18</v>
       </c>
       <c r="B4" s="3">
-        <v>246.375</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3690</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C4"/>
       <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2662,9 +2660,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4"/>
+      <c r="I4">
+        <v>68</v>
+      </c>
       <c r="J4">
-        <v>7991</v>
+        <v>8059</v>
       </c>
       <c r="K4" s="3">
         <v>415</v>
@@ -2676,7 +2676,7 @@
         <v>6830</v>
       </c>
       <c r="N4" s="3">
-        <v>93.54000000000001</v>
+        <v>93.54</v>
       </c>
       <c r="O4" s="3">
         <v>56</v>
@@ -3701,9 +3701,7 @@
       <c r="B5" s="3">
         <v>148</v>
       </c>
-      <c r="C5" s="3">
-        <v>3190</v>
-      </c>
+      <c r="C5"/>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
@@ -3719,9 +3717,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5"/>
+      <c r="I5">
+        <v>186</v>
+      </c>
       <c r="J5">
-        <v>6326</v>
+        <v>6512</v>
       </c>
       <c r="K5" s="3">
         <v>301</v>
@@ -4756,11 +4756,9 @@
         <v>22</v>
       </c>
       <c r="B6" s="3">
-        <v>212.125</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2721</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C6"/>
       <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
@@ -4776,9 +4774,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6"/>
+      <c r="I6">
+        <v>65</v>
+      </c>
       <c r="J6">
-        <v>6224</v>
+        <v>6289</v>
       </c>
       <c r="K6" s="3">
         <v>371</v>
@@ -5813,11 +5813,9 @@
         <v>24</v>
       </c>
       <c r="B7" s="3">
-        <v>121.875</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1536</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C7"/>
       <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
@@ -5833,9 +5831,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7"/>
+      <c r="I7">
+        <v>7</v>
+      </c>
       <c r="J7">
-        <v>4297</v>
+        <v>4304</v>
       </c>
       <c r="K7" s="3">
         <v>202</v>
@@ -5853,7 +5853,7 @@
         <v>307</v>
       </c>
       <c r="P7" s="3">
-        <v>8.630000000000001</v>
+        <v>8.63</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -6870,11 +6870,9 @@
         <v>26</v>
       </c>
       <c r="B8" s="3">
-        <v>72.125</v>
-      </c>
-      <c r="C8" s="3">
-        <v>947</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C8"/>
       <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
@@ -6890,9 +6888,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8"/>
+      <c r="I8">
+        <v>22</v>
+      </c>
       <c r="J8">
-        <v>3033</v>
+        <v>3055</v>
       </c>
       <c r="K8" s="3">
         <v>149</v>
@@ -7927,11 +7927,9 @@
         <v>28</v>
       </c>
       <c r="B9" s="3">
-        <v>10.625</v>
-      </c>
-      <c r="C9" s="3">
-        <v>106</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C9"/>
       <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
@@ -7947,7 +7945,9 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9"/>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9">
         <v>388</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>368</v>
       </c>
       <c r="N9" s="3">
-        <v>94.84999999999999</v>
+        <v>94.85</v>
       </c>
       <c r="O9" s="3">
         <v>1</v>
@@ -8986,9 +8986,7 @@
       <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
+      <c r="C10"/>
       <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
@@ -9004,7 +9002,9 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10"/>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10">
         <v>0</v>
       </c>
@@ -10051,7 +10051,7 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>

--- a/application/modules/charts/models/tmp/lab_performance.xlsx
+++ b/application/modules/charts/models/tmp/lab_performance.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Testing Lab</t>
   </si>
@@ -65,49 +65,46 @@
     <t>Redraws</t>
   </si>
   <si>
+    <t>Kisumu Lab</t>
+  </si>
+  <si>
+    <t>213 (1.1%)</t>
+  </si>
+  <si>
     <t>KEMRI Nairobi Lab</t>
   </si>
   <si>
-    <t>75 (0.64%)</t>
+    <t>203 (1.26%)</t>
   </si>
   <si>
-    <t>Kisumu Lab</t>
+    <t>Busia Lab</t>
   </si>
   <si>
-    <t>72 (0.99%)</t>
+    <t>33 (0.52%)</t>
+  </si>
+  <si>
+    <t>Kericho Lab</t>
+  </si>
+  <si>
+    <t>53 (0.86%)</t>
   </si>
   <si>
     <t>Eldoret Lab</t>
   </si>
   <si>
-    <t>96 (1.76%)</t>
-  </si>
-  <si>
-    <t>Kericho Lab</t>
-  </si>
-  <si>
-    <t>17 (0.31%)</t>
-  </si>
-  <si>
-    <t>Busia Lab</t>
-  </si>
-  <si>
-    <t>11 (0.31%)</t>
+    <t>78 (2.04%)</t>
   </si>
   <si>
     <t>Coast Lab</t>
   </si>
   <si>
-    <t>12 (0.44%)</t>
+    <t>110 (3.65%)</t>
   </si>
   <si>
     <t>NHRL Nairobi</t>
   </si>
   <si>
     <t>0 (0%)</t>
-  </si>
-  <si>
-    <t>Nyumbani Lab</t>
   </si>
 </sst>
 </file>
@@ -473,7 +470,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK10"/>
+  <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -481,1031 +478,1031 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.709183673469" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18.709183673469" customWidth="true" style="0"/>
-    <col min="3" max="3" width="23.05612244898" customWidth="true" style="0"/>
-    <col min="4" max="4" width="34.316326530612" customWidth="true" style="0"/>
-    <col min="5" max="5" width="25.423469387755" customWidth="true" style="0"/>
-    <col min="6" max="6" width="29.418367346939" customWidth="true" style="0"/>
-    <col min="7" max="7" width="30.704081632653" customWidth="true" style="0"/>
-    <col min="8" max="8" width="30.704081632653" customWidth="true" style="0"/>
-    <col min="9" max="9" width="21.709183673469" customWidth="true" style="0"/>
-    <col min="10" max="10" width="21.571428571429" customWidth="true" style="0"/>
-    <col min="11" max="11" width="12.862244897959" customWidth="true" style="0"/>
-    <col min="12" max="12" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="13" max="13" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="14" max="14" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="15" max="15" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="16" max="16" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="17" max="17" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="18" max="18" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="19" max="19" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="20" max="20" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="21" max="21" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="22" max="22" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="23" max="23" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="24" max="24" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="25" max="25" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="26" max="26" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="27" max="27" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="28" max="28" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="29" max="29" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="30" max="30" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="31" max="31" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="32" max="32" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="33" max="33" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="34" max="34" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="35" max="35" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="36" max="36" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="37" max="37" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="38" max="38" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="39" max="39" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="40" max="40" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="41" max="41" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="42" max="42" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="43" max="43" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="44" max="44" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="45" max="45" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="46" max="46" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="47" max="47" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="48" max="48" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="49" max="49" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="50" max="50" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="51" max="51" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="52" max="52" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="53" max="53" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="54" max="54" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="55" max="55" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="56" max="56" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="57" max="57" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="58" max="58" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="59" max="59" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="60" max="60" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="61" max="61" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="62" max="62" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="63" max="63" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="64" max="64" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="65" max="65" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="66" max="66" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="67" max="67" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="68" max="68" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="69" max="69" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="70" max="70" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="71" max="71" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="72" max="72" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="73" max="73" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="74" max="74" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="75" max="75" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="76" max="76" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="77" max="77" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="78" max="78" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="79" max="79" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="80" max="80" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="81" max="81" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="82" max="82" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="83" max="83" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="84" max="84" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="85" max="85" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="86" max="86" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="87" max="87" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="88" max="88" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="89" max="89" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="90" max="90" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="91" max="91" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="92" max="92" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="93" max="93" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="94" max="94" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="95" max="95" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="96" max="96" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="97" max="97" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="98" max="98" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="99" max="99" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="100" max="100" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="101" max="101" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="102" max="102" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="103" max="103" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="104" max="104" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="105" max="105" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="106" max="106" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="107" max="107" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="108" max="108" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="109" max="109" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="110" max="110" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="111" max="111" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="112" max="112" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="113" max="113" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="114" max="114" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="115" max="115" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="116" max="116" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="117" max="117" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="118" max="118" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="119" max="119" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="120" max="120" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="121" max="121" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="122" max="122" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="123" max="123" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="124" max="124" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="125" max="125" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="126" max="126" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="127" max="127" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="128" max="128" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="129" max="129" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="130" max="130" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="131" max="131" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="132" max="132" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="133" max="133" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="134" max="134" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="135" max="135" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="136" max="136" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="137" max="137" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="138" max="138" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="139" max="139" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="140" max="140" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="141" max="141" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="142" max="142" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="143" max="143" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="144" max="144" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="145" max="145" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="146" max="146" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="147" max="147" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="148" max="148" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="149" max="149" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="150" max="150" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="151" max="151" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="152" max="152" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="153" max="153" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="154" max="154" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="155" max="155" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="156" max="156" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="157" max="157" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="158" max="158" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="159" max="159" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="160" max="160" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="161" max="161" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="162" max="162" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="163" max="163" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="164" max="164" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="165" max="165" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="166" max="166" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="167" max="167" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="168" max="168" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="169" max="169" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="170" max="170" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="171" max="171" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="172" max="172" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="173" max="173" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="174" max="174" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="175" max="175" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="176" max="176" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="177" max="177" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="178" max="178" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="179" max="179" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="180" max="180" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="181" max="181" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="182" max="182" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="183" max="183" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="184" max="184" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="185" max="185" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="186" max="186" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="187" max="187" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="188" max="188" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="189" max="189" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="190" max="190" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="191" max="191" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="192" max="192" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="193" max="193" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="194" max="194" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="195" max="195" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="196" max="196" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="197" max="197" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="198" max="198" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="199" max="199" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="200" max="200" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="201" max="201" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="202" max="202" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="203" max="203" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="204" max="204" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="205" max="205" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="206" max="206" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="207" max="207" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="208" max="208" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="209" max="209" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="210" max="210" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="211" max="211" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="212" max="212" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="213" max="213" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="214" max="214" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="215" max="215" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="216" max="216" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="217" max="217" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="218" max="218" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="219" max="219" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="220" max="220" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="221" max="221" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="222" max="222" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="223" max="223" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="224" max="224" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="225" max="225" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="226" max="226" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="227" max="227" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="228" max="228" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="229" max="229" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="230" max="230" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="231" max="231" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="232" max="232" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="233" max="233" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="234" max="234" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="235" max="235" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="236" max="236" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="237" max="237" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="238" max="238" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="239" max="239" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="240" max="240" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="241" max="241" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="242" max="242" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="243" max="243" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="244" max="244" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="245" max="245" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="246" max="246" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="247" max="247" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="248" max="248" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="249" max="249" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="250" max="250" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="251" max="251" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="252" max="252" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="253" max="253" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="254" max="254" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="255" max="255" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="256" max="256" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="257" max="257" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="258" max="258" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="259" max="259" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="260" max="260" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="261" max="261" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="262" max="262" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="263" max="263" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="264" max="264" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="265" max="265" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="266" max="266" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="267" max="267" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="268" max="268" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="269" max="269" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="270" max="270" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="271" max="271" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="272" max="272" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="273" max="273" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="274" max="274" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="275" max="275" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="276" max="276" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="277" max="277" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="278" max="278" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="279" max="279" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="280" max="280" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="281" max="281" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="282" max="282" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="283" max="283" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="284" max="284" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="285" max="285" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="286" max="286" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="287" max="287" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="288" max="288" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="289" max="289" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="290" max="290" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="291" max="291" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="292" max="292" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="293" max="293" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="294" max="294" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="295" max="295" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="296" max="296" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="297" max="297" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="298" max="298" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="299" max="299" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="300" max="300" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="301" max="301" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="302" max="302" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="303" max="303" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="304" max="304" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="305" max="305" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="306" max="306" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="307" max="307" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="308" max="308" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="309" max="309" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="310" max="310" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="311" max="311" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="312" max="312" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="313" max="313" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="314" max="314" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="315" max="315" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="316" max="316" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="317" max="317" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="318" max="318" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="319" max="319" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="320" max="320" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="321" max="321" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="322" max="322" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="323" max="323" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="324" max="324" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="325" max="325" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="326" max="326" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="327" max="327" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="328" max="328" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="329" max="329" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="330" max="330" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="331" max="331" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="332" max="332" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="333" max="333" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="334" max="334" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="335" max="335" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="336" max="336" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="337" max="337" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="338" max="338" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="339" max="339" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="340" max="340" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="341" max="341" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="342" max="342" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="343" max="343" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="344" max="344" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="345" max="345" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="346" max="346" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="347" max="347" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="348" max="348" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="349" max="349" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="350" max="350" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="351" max="351" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="352" max="352" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="353" max="353" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="354" max="354" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="355" max="355" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="356" max="356" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="357" max="357" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="358" max="358" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="359" max="359" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="360" max="360" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="361" max="361" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="362" max="362" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="363" max="363" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="364" max="364" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="365" max="365" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="366" max="366" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="367" max="367" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="368" max="368" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="369" max="369" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="370" max="370" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="371" max="371" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="372" max="372" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="373" max="373" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="374" max="374" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="375" max="375" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="376" max="376" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="377" max="377" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="378" max="378" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="379" max="379" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="380" max="380" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="381" max="381" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="382" max="382" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="383" max="383" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="384" max="384" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="385" max="385" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="386" max="386" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="387" max="387" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="388" max="388" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="389" max="389" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="390" max="390" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="391" max="391" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="392" max="392" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="393" max="393" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="394" max="394" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="395" max="395" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="396" max="396" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="397" max="397" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="398" max="398" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="399" max="399" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="400" max="400" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="401" max="401" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="402" max="402" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="403" max="403" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="404" max="404" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="405" max="405" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="406" max="406" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="407" max="407" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="408" max="408" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="409" max="409" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="410" max="410" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="411" max="411" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="412" max="412" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="413" max="413" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="414" max="414" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="415" max="415" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="416" max="416" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="417" max="417" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="418" max="418" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="419" max="419" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="420" max="420" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="421" max="421" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="422" max="422" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="423" max="423" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="424" max="424" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="425" max="425" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="426" max="426" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="427" max="427" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="428" max="428" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="429" max="429" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="430" max="430" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="431" max="431" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="432" max="432" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="433" max="433" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="434" max="434" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="435" max="435" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="436" max="436" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="437" max="437" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="438" max="438" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="439" max="439" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="440" max="440" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="441" max="441" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="442" max="442" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="443" max="443" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="444" max="444" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="445" max="445" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="446" max="446" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="447" max="447" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="448" max="448" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="449" max="449" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="450" max="450" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="451" max="451" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="452" max="452" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="453" max="453" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="454" max="454" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="455" max="455" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="456" max="456" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="457" max="457" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="458" max="458" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="459" max="459" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="460" max="460" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="461" max="461" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="462" max="462" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="463" max="463" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="464" max="464" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="465" max="465" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="466" max="466" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="467" max="467" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="468" max="468" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="469" max="469" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="470" max="470" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="471" max="471" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="472" max="472" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="473" max="473" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="474" max="474" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="475" max="475" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="476" max="476" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="477" max="477" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="478" max="478" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="479" max="479" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="480" max="480" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="481" max="481" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="482" max="482" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="483" max="483" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="484" max="484" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="485" max="485" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="486" max="486" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="487" max="487" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="488" max="488" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="489" max="489" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="490" max="490" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="491" max="491" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="492" max="492" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="493" max="493" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="494" max="494" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="495" max="495" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="496" max="496" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="497" max="497" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="498" max="498" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="499" max="499" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="500" max="500" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="501" max="501" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="502" max="502" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="503" max="503" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="504" max="504" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="505" max="505" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="506" max="506" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="507" max="507" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="508" max="508" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="509" max="509" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="510" max="510" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="511" max="511" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="512" max="512" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="513" max="513" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="514" max="514" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="515" max="515" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="516" max="516" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="517" max="517" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="518" max="518" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="519" max="519" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="520" max="520" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="521" max="521" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="522" max="522" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="523" max="523" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="524" max="524" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="525" max="525" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="526" max="526" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="527" max="527" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="528" max="528" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="529" max="529" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="530" max="530" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="531" max="531" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="532" max="532" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="533" max="533" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="534" max="534" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="535" max="535" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="536" max="536" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="537" max="537" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="538" max="538" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="539" max="539" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="540" max="540" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="541" max="541" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="542" max="542" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="543" max="543" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="544" max="544" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="545" max="545" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="546" max="546" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="547" max="547" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="548" max="548" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="549" max="549" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="550" max="550" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="551" max="551" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="552" max="552" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="553" max="553" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="554" max="554" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="555" max="555" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="556" max="556" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="557" max="557" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="558" max="558" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="559" max="559" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="560" max="560" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="561" max="561" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="562" max="562" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="563" max="563" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="564" max="564" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="565" max="565" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="566" max="566" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="567" max="567" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="568" max="568" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="569" max="569" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="570" max="570" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="571" max="571" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="572" max="572" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="573" max="573" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="574" max="574" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="575" max="575" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="576" max="576" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="577" max="577" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="578" max="578" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="579" max="579" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="580" max="580" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="581" max="581" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="582" max="582" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="583" max="583" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="584" max="584" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="585" max="585" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="586" max="586" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="587" max="587" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="588" max="588" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="589" max="589" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="590" max="590" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="591" max="591" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="592" max="592" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="593" max="593" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="594" max="594" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="595" max="595" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="596" max="596" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="597" max="597" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="598" max="598" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="599" max="599" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="600" max="600" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="601" max="601" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="602" max="602" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="603" max="603" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="604" max="604" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="605" max="605" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="606" max="606" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="607" max="607" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="608" max="608" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="609" max="609" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="610" max="610" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="611" max="611" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="612" max="612" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="613" max="613" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="614" max="614" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="615" max="615" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="616" max="616" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="617" max="617" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="618" max="618" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="619" max="619" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="620" max="620" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="621" max="621" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="622" max="622" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="623" max="623" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="624" max="624" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="625" max="625" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="626" max="626" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="627" max="627" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="628" max="628" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="629" max="629" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="630" max="630" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="631" max="631" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="632" max="632" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="633" max="633" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="634" max="634" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="635" max="635" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="636" max="636" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="637" max="637" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="638" max="638" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="639" max="639" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="640" max="640" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="641" max="641" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="642" max="642" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="643" max="643" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="644" max="644" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="645" max="645" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="646" max="646" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="647" max="647" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="648" max="648" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="649" max="649" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="650" max="650" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="651" max="651" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="652" max="652" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="653" max="653" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="654" max="654" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="655" max="655" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="656" max="656" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="657" max="657" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="658" max="658" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="659" max="659" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="660" max="660" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="661" max="661" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="662" max="662" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="663" max="663" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="664" max="664" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="665" max="665" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="666" max="666" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="667" max="667" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="668" max="668" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="669" max="669" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="670" max="670" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="671" max="671" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="672" max="672" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="673" max="673" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="674" max="674" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="675" max="675" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="676" max="676" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="677" max="677" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="678" max="678" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="679" max="679" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="680" max="680" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="681" max="681" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="682" max="682" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="683" max="683" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="684" max="684" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="685" max="685" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="686" max="686" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="687" max="687" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="688" max="688" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="689" max="689" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="690" max="690" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="691" max="691" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="692" max="692" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="693" max="693" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="694" max="694" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="695" max="695" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="696" max="696" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="697" max="697" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="698" max="698" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="699" max="699" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="700" max="700" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="701" max="701" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="702" max="702" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="703" max="703" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="704" max="704" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="705" max="705" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="706" max="706" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="707" max="707" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="708" max="708" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="709" max="709" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="710" max="710" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="711" max="711" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="712" max="712" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="713" max="713" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="714" max="714" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="715" max="715" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="716" max="716" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="717" max="717" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="718" max="718" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="719" max="719" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="720" max="720" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="721" max="721" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="722" max="722" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="723" max="723" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="724" max="724" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="725" max="725" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="726" max="726" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="727" max="727" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="728" max="728" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="729" max="729" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="730" max="730" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="731" max="731" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="732" max="732" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="733" max="733" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="734" max="734" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="735" max="735" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="736" max="736" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="737" max="737" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="738" max="738" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="739" max="739" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="740" max="740" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="741" max="741" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="742" max="742" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="743" max="743" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="744" max="744" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="745" max="745" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="746" max="746" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="747" max="747" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="748" max="748" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="749" max="749" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="750" max="750" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="751" max="751" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="752" max="752" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="753" max="753" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="754" max="754" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="755" max="755" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="756" max="756" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="757" max="757" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="758" max="758" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="759" max="759" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="760" max="760" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="761" max="761" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="762" max="762" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="763" max="763" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="764" max="764" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="765" max="765" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="766" max="766" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="767" max="767" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="768" max="768" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="769" max="769" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="770" max="770" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="771" max="771" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="772" max="772" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="773" max="773" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="774" max="774" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="775" max="775" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="776" max="776" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="777" max="777" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="778" max="778" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="779" max="779" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="780" max="780" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="781" max="781" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="782" max="782" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="783" max="783" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="784" max="784" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="785" max="785" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="786" max="786" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="787" max="787" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="788" max="788" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="789" max="789" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="790" max="790" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="791" max="791" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="792" max="792" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="793" max="793" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="794" max="794" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="795" max="795" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="796" max="796" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="797" max="797" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="798" max="798" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="799" max="799" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="800" max="800" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="801" max="801" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="802" max="802" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="803" max="803" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="804" max="804" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="805" max="805" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="806" max="806" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="807" max="807" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="808" max="808" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="809" max="809" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="810" max="810" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="811" max="811" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="812" max="812" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="813" max="813" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="814" max="814" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="815" max="815" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="816" max="816" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="817" max="817" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="818" max="818" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="819" max="819" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="820" max="820" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="821" max="821" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="822" max="822" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="823" max="823" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="824" max="824" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="825" max="825" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="826" max="826" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="827" max="827" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="828" max="828" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="829" max="829" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="830" max="830" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="831" max="831" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="832" max="832" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="833" max="833" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="834" max="834" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="835" max="835" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="836" max="836" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="837" max="837" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="838" max="838" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="839" max="839" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="840" max="840" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="841" max="841" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="842" max="842" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="843" max="843" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="844" max="844" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="845" max="845" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="846" max="846" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="847" max="847" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="848" max="848" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="849" max="849" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="850" max="850" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="851" max="851" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="852" max="852" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="853" max="853" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="854" max="854" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="855" max="855" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="856" max="856" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="857" max="857" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="858" max="858" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="859" max="859" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="860" max="860" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="861" max="861" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="862" max="862" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="863" max="863" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="864" max="864" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="865" max="865" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="866" max="866" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="867" max="867" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="868" max="868" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="869" max="869" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="870" max="870" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="871" max="871" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="872" max="872" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="873" max="873" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="874" max="874" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="875" max="875" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="876" max="876" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="877" max="877" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="878" max="878" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="879" max="879" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="880" max="880" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="881" max="881" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="882" max="882" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="883" max="883" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="884" max="884" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="885" max="885" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="886" max="886" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="887" max="887" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="888" max="888" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="889" max="889" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="890" max="890" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="891" max="891" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="892" max="892" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="893" max="893" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="894" max="894" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="895" max="895" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="896" max="896" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="897" max="897" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="898" max="898" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="899" max="899" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="900" max="900" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="901" max="901" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="902" max="902" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="903" max="903" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="904" max="904" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="905" max="905" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="906" max="906" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="907" max="907" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="908" max="908" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="909" max="909" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="910" max="910" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="911" max="911" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="912" max="912" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="913" max="913" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="914" max="914" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="915" max="915" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="916" max="916" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="917" max="917" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="918" max="918" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="919" max="919" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="920" max="920" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="921" max="921" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="922" max="922" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="923" max="923" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="924" max="924" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="925" max="925" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="926" max="926" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="927" max="927" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="928" max="928" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="929" max="929" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="930" max="930" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="931" max="931" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="932" max="932" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="933" max="933" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="934" max="934" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="935" max="935" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="936" max="936" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="937" max="937" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="938" max="938" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="939" max="939" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="940" max="940" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="941" max="941" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="942" max="942" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="943" max="943" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="944" max="944" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="945" max="945" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="946" max="946" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="947" max="947" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="948" max="948" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="949" max="949" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="950" max="950" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="951" max="951" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="952" max="952" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="953" max="953" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="954" max="954" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="955" max="955" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="956" max="956" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="957" max="957" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="958" max="958" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="959" max="959" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="960" max="960" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="961" max="961" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="962" max="962" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="963" max="963" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="964" max="964" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="965" max="965" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="966" max="966" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="967" max="967" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="968" max="968" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="969" max="969" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="970" max="970" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="971" max="971" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="972" max="972" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="973" max="973" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="974" max="974" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="975" max="975" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="976" max="976" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="977" max="977" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="978" max="978" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="979" max="979" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="980" max="980" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="981" max="981" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="982" max="982" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="983" max="983" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="984" max="984" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="985" max="985" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="986" max="986" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="987" max="987" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="988" max="988" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="989" max="989" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="990" max="990" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="991" max="991" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="992" max="992" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="993" max="993" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="994" max="994" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="995" max="995" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="996" max="996" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="997" max="997" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="998" max="998" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="999" max="999" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1000" max="1000" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1001" max="1001" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1002" max="1002" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1003" max="1003" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1004" max="1004" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1005" max="1005" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1006" max="1006" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1007" max="1007" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1008" max="1008" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1009" max="1009" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1010" max="1010" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1011" max="1011" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1012" max="1012" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1013" max="1013" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1014" max="1014" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1015" max="1015" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1016" max="1016" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1017" max="1017" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1018" max="1018" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1019" max="1019" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1020" max="1020" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1021" max="1021" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1022" max="1022" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1023" max="1023" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1024" max="1024" width="11.571428571429" customWidth="true" style="0"/>
-    <col min="1025" max="1025" width="11.571428571429" customWidth="true" style="0"/>
+    <col min="1" max="1" width="18.7091836734694" customWidth="true" style="0"/>
+    <col min="2" max="2" width="18.7091836734694" customWidth="true" style="0"/>
+    <col min="3" max="3" width="23.0561224489796" customWidth="true" style="0"/>
+    <col min="4" max="4" width="34.3163265306122" customWidth="true" style="0"/>
+    <col min="5" max="5" width="25.4234693877551" customWidth="true" style="0"/>
+    <col min="6" max="6" width="29.4183673469388" customWidth="true" style="0"/>
+    <col min="7" max="7" width="30.7040816326531" customWidth="true" style="0"/>
+    <col min="8" max="8" width="30.7040816326531" customWidth="true" style="0"/>
+    <col min="9" max="9" width="21.7091836734694" customWidth="true" style="0"/>
+    <col min="10" max="10" width="21.5714285714286" customWidth="true" style="0"/>
+    <col min="11" max="11" width="12.8622448979592" customWidth="true" style="0"/>
+    <col min="12" max="12" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="13" max="13" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="14" max="14" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="15" max="15" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="16" max="16" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="17" max="17" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="18" max="18" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="19" max="19" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="20" max="20" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="21" max="21" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="22" max="22" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="23" max="23" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="24" max="24" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="25" max="25" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="26" max="26" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="27" max="27" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="28" max="28" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="29" max="29" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="30" max="30" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="31" max="31" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="32" max="32" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="33" max="33" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="34" max="34" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="35" max="35" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="36" max="36" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="37" max="37" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="38" max="38" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="39" max="39" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="40" max="40" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="41" max="41" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="42" max="42" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="43" max="43" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="44" max="44" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="45" max="45" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="46" max="46" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="47" max="47" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="48" max="48" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="49" max="49" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="50" max="50" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="51" max="51" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="52" max="52" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="53" max="53" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="54" max="54" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="55" max="55" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="56" max="56" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="57" max="57" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="58" max="58" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="59" max="59" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="60" max="60" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="61" max="61" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="62" max="62" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="63" max="63" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="64" max="64" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="65" max="65" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="66" max="66" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="67" max="67" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="68" max="68" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="69" max="69" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="70" max="70" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="71" max="71" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="72" max="72" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="73" max="73" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="74" max="74" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="75" max="75" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="76" max="76" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="77" max="77" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="78" max="78" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="79" max="79" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="80" max="80" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="81" max="81" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="82" max="82" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="83" max="83" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="84" max="84" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="85" max="85" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="86" max="86" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="87" max="87" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="88" max="88" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="89" max="89" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="90" max="90" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="91" max="91" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="92" max="92" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="93" max="93" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="94" max="94" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="95" max="95" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="96" max="96" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="97" max="97" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="98" max="98" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="99" max="99" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="100" max="100" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="101" max="101" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="102" max="102" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="103" max="103" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="104" max="104" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="105" max="105" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="106" max="106" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="107" max="107" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="108" max="108" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="109" max="109" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="110" max="110" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="111" max="111" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="112" max="112" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="113" max="113" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="114" max="114" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="115" max="115" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="116" max="116" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="117" max="117" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="118" max="118" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="119" max="119" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="120" max="120" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="121" max="121" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="122" max="122" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="123" max="123" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="124" max="124" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="125" max="125" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="126" max="126" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="127" max="127" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="128" max="128" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="129" max="129" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="130" max="130" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="131" max="131" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="132" max="132" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="133" max="133" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="134" max="134" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="135" max="135" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="136" max="136" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="137" max="137" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="138" max="138" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="139" max="139" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="140" max="140" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="141" max="141" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="142" max="142" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="143" max="143" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="144" max="144" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="145" max="145" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="146" max="146" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="147" max="147" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="148" max="148" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="149" max="149" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="150" max="150" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="151" max="151" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="152" max="152" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="153" max="153" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="154" max="154" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="155" max="155" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="156" max="156" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="157" max="157" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="158" max="158" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="159" max="159" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="160" max="160" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="161" max="161" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="162" max="162" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="163" max="163" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="164" max="164" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="165" max="165" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="166" max="166" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="167" max="167" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="168" max="168" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="169" max="169" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="170" max="170" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="171" max="171" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="172" max="172" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="173" max="173" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="174" max="174" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="175" max="175" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="176" max="176" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="177" max="177" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="178" max="178" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="179" max="179" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="180" max="180" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="181" max="181" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="182" max="182" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="183" max="183" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="184" max="184" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="185" max="185" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="186" max="186" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="187" max="187" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="188" max="188" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="189" max="189" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="190" max="190" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="191" max="191" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="192" max="192" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="193" max="193" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="194" max="194" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="195" max="195" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="196" max="196" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="197" max="197" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="198" max="198" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="199" max="199" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="200" max="200" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="201" max="201" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="202" max="202" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="203" max="203" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="204" max="204" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="205" max="205" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="206" max="206" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="207" max="207" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="208" max="208" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="209" max="209" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="210" max="210" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="211" max="211" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="212" max="212" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="213" max="213" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="214" max="214" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="215" max="215" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="216" max="216" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="217" max="217" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="218" max="218" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="219" max="219" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="220" max="220" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="221" max="221" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="222" max="222" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="223" max="223" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="224" max="224" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="225" max="225" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="226" max="226" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="227" max="227" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="228" max="228" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="229" max="229" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="230" max="230" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="231" max="231" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="232" max="232" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="233" max="233" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="234" max="234" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="235" max="235" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="236" max="236" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="237" max="237" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="238" max="238" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="239" max="239" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="240" max="240" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="241" max="241" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="242" max="242" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="243" max="243" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="244" max="244" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="245" max="245" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="246" max="246" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="247" max="247" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="248" max="248" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="249" max="249" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="250" max="250" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="251" max="251" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="252" max="252" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="253" max="253" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="254" max="254" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="255" max="255" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="256" max="256" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="257" max="257" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="258" max="258" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="259" max="259" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="260" max="260" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="261" max="261" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="262" max="262" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="263" max="263" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="264" max="264" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="265" max="265" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="266" max="266" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="267" max="267" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="268" max="268" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="269" max="269" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="270" max="270" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="271" max="271" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="272" max="272" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="273" max="273" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="274" max="274" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="275" max="275" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="276" max="276" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="277" max="277" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="278" max="278" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="279" max="279" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="280" max="280" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="281" max="281" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="282" max="282" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="283" max="283" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="284" max="284" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="285" max="285" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="286" max="286" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="287" max="287" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="288" max="288" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="289" max="289" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="290" max="290" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="291" max="291" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="292" max="292" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="293" max="293" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="294" max="294" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="295" max="295" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="296" max="296" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="297" max="297" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="298" max="298" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="299" max="299" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="300" max="300" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="301" max="301" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="302" max="302" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="303" max="303" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="304" max="304" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="305" max="305" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="306" max="306" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="307" max="307" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="308" max="308" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="309" max="309" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="310" max="310" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="311" max="311" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="312" max="312" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="313" max="313" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="314" max="314" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="315" max="315" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="316" max="316" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="317" max="317" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="318" max="318" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="319" max="319" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="320" max="320" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="321" max="321" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="322" max="322" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="323" max="323" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="324" max="324" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="325" max="325" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="326" max="326" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="327" max="327" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="328" max="328" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="329" max="329" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="330" max="330" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="331" max="331" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="332" max="332" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="333" max="333" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="334" max="334" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="335" max="335" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="336" max="336" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="337" max="337" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="338" max="338" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="339" max="339" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="340" max="340" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="341" max="341" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="342" max="342" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="343" max="343" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="344" max="344" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="345" max="345" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="346" max="346" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="347" max="347" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="348" max="348" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="349" max="349" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="350" max="350" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="351" max="351" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="352" max="352" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="353" max="353" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="354" max="354" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="355" max="355" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="356" max="356" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="357" max="357" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="358" max="358" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="359" max="359" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="360" max="360" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="361" max="361" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="362" max="362" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="363" max="363" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="364" max="364" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="365" max="365" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="366" max="366" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="367" max="367" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="368" max="368" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="369" max="369" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="370" max="370" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="371" max="371" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="372" max="372" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="373" max="373" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="374" max="374" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="375" max="375" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="376" max="376" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="377" max="377" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="378" max="378" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="379" max="379" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="380" max="380" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="381" max="381" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="382" max="382" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="383" max="383" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="384" max="384" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="385" max="385" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="386" max="386" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="387" max="387" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="388" max="388" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="389" max="389" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="390" max="390" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="391" max="391" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="392" max="392" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="393" max="393" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="394" max="394" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="395" max="395" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="396" max="396" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="397" max="397" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="398" max="398" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="399" max="399" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="400" max="400" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="401" max="401" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="402" max="402" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="403" max="403" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="404" max="404" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="405" max="405" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="406" max="406" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="407" max="407" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="408" max="408" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="409" max="409" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="410" max="410" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="411" max="411" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="412" max="412" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="413" max="413" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="414" max="414" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="415" max="415" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="416" max="416" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="417" max="417" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="418" max="418" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="419" max="419" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="420" max="420" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="421" max="421" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="422" max="422" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="423" max="423" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="424" max="424" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="425" max="425" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="426" max="426" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="427" max="427" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="428" max="428" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="429" max="429" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="430" max="430" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="431" max="431" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="432" max="432" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="433" max="433" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="434" max="434" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="435" max="435" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="436" max="436" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="437" max="437" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="438" max="438" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="439" max="439" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="440" max="440" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="441" max="441" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="442" max="442" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="443" max="443" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="444" max="444" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="445" max="445" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="446" max="446" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="447" max="447" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="448" max="448" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="449" max="449" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="450" max="450" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="451" max="451" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="452" max="452" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="453" max="453" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="454" max="454" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="455" max="455" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="456" max="456" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="457" max="457" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="458" max="458" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="459" max="459" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="460" max="460" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="461" max="461" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="462" max="462" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="463" max="463" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="464" max="464" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="465" max="465" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="466" max="466" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="467" max="467" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="468" max="468" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="469" max="469" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="470" max="470" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="471" max="471" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="472" max="472" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="473" max="473" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="474" max="474" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="475" max="475" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="476" max="476" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="477" max="477" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="478" max="478" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="479" max="479" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="480" max="480" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="481" max="481" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="482" max="482" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="483" max="483" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="484" max="484" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="485" max="485" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="486" max="486" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="487" max="487" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="488" max="488" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="489" max="489" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="490" max="490" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="491" max="491" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="492" max="492" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="493" max="493" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="494" max="494" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="495" max="495" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="496" max="496" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="497" max="497" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="498" max="498" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="499" max="499" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="500" max="500" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="501" max="501" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="502" max="502" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="503" max="503" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="504" max="504" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="505" max="505" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="506" max="506" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="507" max="507" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="508" max="508" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="509" max="509" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="510" max="510" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="511" max="511" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="512" max="512" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="513" max="513" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="514" max="514" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="515" max="515" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="516" max="516" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="517" max="517" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="518" max="518" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="519" max="519" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="520" max="520" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="521" max="521" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="522" max="522" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="523" max="523" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="524" max="524" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="525" max="525" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="526" max="526" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="527" max="527" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="528" max="528" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="529" max="529" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="530" max="530" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="531" max="531" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="532" max="532" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="533" max="533" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="534" max="534" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="535" max="535" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="536" max="536" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="537" max="537" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="538" max="538" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="539" max="539" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="540" max="540" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="541" max="541" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="542" max="542" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="543" max="543" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="544" max="544" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="545" max="545" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="546" max="546" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="547" max="547" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="548" max="548" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="549" max="549" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="550" max="550" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="551" max="551" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="552" max="552" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="553" max="553" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="554" max="554" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="555" max="555" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="556" max="556" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="557" max="557" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="558" max="558" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="559" max="559" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="560" max="560" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="561" max="561" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="562" max="562" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="563" max="563" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="564" max="564" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="565" max="565" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="566" max="566" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="567" max="567" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="568" max="568" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="569" max="569" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="570" max="570" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="571" max="571" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="572" max="572" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="573" max="573" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="574" max="574" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="575" max="575" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="576" max="576" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="577" max="577" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="578" max="578" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="579" max="579" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="580" max="580" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="581" max="581" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="582" max="582" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="583" max="583" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="584" max="584" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="585" max="585" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="586" max="586" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="587" max="587" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="588" max="588" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="589" max="589" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="590" max="590" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="591" max="591" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="592" max="592" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="593" max="593" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="594" max="594" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="595" max="595" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="596" max="596" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="597" max="597" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="598" max="598" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="599" max="599" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="600" max="600" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="601" max="601" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="602" max="602" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="603" max="603" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="604" max="604" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="605" max="605" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="606" max="606" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="607" max="607" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="608" max="608" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="609" max="609" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="610" max="610" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="611" max="611" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="612" max="612" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="613" max="613" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="614" max="614" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="615" max="615" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="616" max="616" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="617" max="617" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="618" max="618" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="619" max="619" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="620" max="620" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="621" max="621" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="622" max="622" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="623" max="623" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="624" max="624" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="625" max="625" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="626" max="626" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="627" max="627" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="628" max="628" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="629" max="629" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="630" max="630" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="631" max="631" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="632" max="632" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="633" max="633" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="634" max="634" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="635" max="635" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="636" max="636" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="637" max="637" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="638" max="638" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="639" max="639" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="640" max="640" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="641" max="641" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="642" max="642" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="643" max="643" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="644" max="644" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="645" max="645" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="646" max="646" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="647" max="647" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="648" max="648" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="649" max="649" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="650" max="650" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="651" max="651" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="652" max="652" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="653" max="653" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="654" max="654" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="655" max="655" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="656" max="656" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="657" max="657" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="658" max="658" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="659" max="659" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="660" max="660" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="661" max="661" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="662" max="662" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="663" max="663" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="664" max="664" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="665" max="665" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="666" max="666" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="667" max="667" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="668" max="668" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="669" max="669" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="670" max="670" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="671" max="671" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="672" max="672" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="673" max="673" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="674" max="674" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="675" max="675" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="676" max="676" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="677" max="677" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="678" max="678" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="679" max="679" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="680" max="680" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="681" max="681" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="682" max="682" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="683" max="683" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="684" max="684" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="685" max="685" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="686" max="686" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="687" max="687" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="688" max="688" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="689" max="689" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="690" max="690" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="691" max="691" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="692" max="692" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="693" max="693" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="694" max="694" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="695" max="695" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="696" max="696" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="697" max="697" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="698" max="698" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="699" max="699" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="700" max="700" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="701" max="701" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="702" max="702" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="703" max="703" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="704" max="704" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="705" max="705" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="706" max="706" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="707" max="707" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="708" max="708" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="709" max="709" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="710" max="710" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="711" max="711" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="712" max="712" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="713" max="713" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="714" max="714" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="715" max="715" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="716" max="716" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="717" max="717" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="718" max="718" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="719" max="719" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="720" max="720" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="721" max="721" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="722" max="722" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="723" max="723" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="724" max="724" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="725" max="725" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="726" max="726" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="727" max="727" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="728" max="728" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="729" max="729" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="730" max="730" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="731" max="731" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="732" max="732" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="733" max="733" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="734" max="734" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="735" max="735" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="736" max="736" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="737" max="737" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="738" max="738" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="739" max="739" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="740" max="740" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="741" max="741" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="742" max="742" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="743" max="743" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="744" max="744" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="745" max="745" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="746" max="746" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="747" max="747" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="748" max="748" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="749" max="749" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="750" max="750" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="751" max="751" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="752" max="752" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="753" max="753" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="754" max="754" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="755" max="755" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="756" max="756" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="757" max="757" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="758" max="758" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="759" max="759" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="760" max="760" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="761" max="761" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="762" max="762" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="763" max="763" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="764" max="764" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="765" max="765" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="766" max="766" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="767" max="767" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="768" max="768" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="769" max="769" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="770" max="770" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="771" max="771" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="772" max="772" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="773" max="773" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="774" max="774" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="775" max="775" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="776" max="776" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="777" max="777" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="778" max="778" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="779" max="779" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="780" max="780" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="781" max="781" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="782" max="782" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="783" max="783" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="784" max="784" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="785" max="785" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="786" max="786" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="787" max="787" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="788" max="788" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="789" max="789" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="790" max="790" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="791" max="791" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="792" max="792" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="793" max="793" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="794" max="794" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="795" max="795" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="796" max="796" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="797" max="797" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="798" max="798" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="799" max="799" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="800" max="800" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="801" max="801" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="802" max="802" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="803" max="803" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="804" max="804" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="805" max="805" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="806" max="806" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="807" max="807" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="808" max="808" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="809" max="809" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="810" max="810" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="811" max="811" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="812" max="812" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="813" max="813" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="814" max="814" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="815" max="815" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="816" max="816" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="817" max="817" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="818" max="818" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="819" max="819" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="820" max="820" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="821" max="821" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="822" max="822" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="823" max="823" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="824" max="824" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="825" max="825" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="826" max="826" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="827" max="827" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="828" max="828" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="829" max="829" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="830" max="830" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="831" max="831" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="832" max="832" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="833" max="833" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="834" max="834" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="835" max="835" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="836" max="836" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="837" max="837" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="838" max="838" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="839" max="839" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="840" max="840" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="841" max="841" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="842" max="842" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="843" max="843" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="844" max="844" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="845" max="845" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="846" max="846" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="847" max="847" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="848" max="848" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="849" max="849" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="850" max="850" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="851" max="851" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="852" max="852" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="853" max="853" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="854" max="854" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="855" max="855" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="856" max="856" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="857" max="857" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="858" max="858" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="859" max="859" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="860" max="860" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="861" max="861" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="862" max="862" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="863" max="863" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="864" max="864" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="865" max="865" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="866" max="866" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="867" max="867" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="868" max="868" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="869" max="869" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="870" max="870" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="871" max="871" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="872" max="872" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="873" max="873" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="874" max="874" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="875" max="875" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="876" max="876" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="877" max="877" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="878" max="878" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="879" max="879" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="880" max="880" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="881" max="881" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="882" max="882" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="883" max="883" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="884" max="884" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="885" max="885" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="886" max="886" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="887" max="887" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="888" max="888" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="889" max="889" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="890" max="890" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="891" max="891" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="892" max="892" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="893" max="893" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="894" max="894" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="895" max="895" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="896" max="896" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="897" max="897" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="898" max="898" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="899" max="899" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="900" max="900" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="901" max="901" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="902" max="902" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="903" max="903" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="904" max="904" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="905" max="905" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="906" max="906" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="907" max="907" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="908" max="908" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="909" max="909" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="910" max="910" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="911" max="911" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="912" max="912" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="913" max="913" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="914" max="914" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="915" max="915" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="916" max="916" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="917" max="917" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="918" max="918" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="919" max="919" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="920" max="920" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="921" max="921" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="922" max="922" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="923" max="923" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="924" max="924" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="925" max="925" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="926" max="926" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="927" max="927" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="928" max="928" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="929" max="929" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="930" max="930" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="931" max="931" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="932" max="932" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="933" max="933" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="934" max="934" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="935" max="935" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="936" max="936" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="937" max="937" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="938" max="938" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="939" max="939" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="940" max="940" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="941" max="941" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="942" max="942" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="943" max="943" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="944" max="944" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="945" max="945" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="946" max="946" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="947" max="947" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="948" max="948" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="949" max="949" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="950" max="950" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="951" max="951" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="952" max="952" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="953" max="953" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="954" max="954" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="955" max="955" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="956" max="956" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="957" max="957" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="958" max="958" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="959" max="959" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="960" max="960" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="961" max="961" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="962" max="962" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="963" max="963" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="964" max="964" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="965" max="965" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="966" max="966" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="967" max="967" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="968" max="968" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="969" max="969" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="970" max="970" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="971" max="971" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="972" max="972" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="973" max="973" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="974" max="974" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="975" max="975" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="976" max="976" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="977" max="977" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="978" max="978" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="979" max="979" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="980" max="980" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="981" max="981" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="982" max="982" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="983" max="983" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="984" max="984" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="985" max="985" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="986" max="986" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="987" max="987" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="988" max="988" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="989" max="989" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="990" max="990" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="991" max="991" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="992" max="992" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="993" max="993" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="994" max="994" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="995" max="995" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="996" max="996" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="997" max="997" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="998" max="998" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="999" max="999" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1000" max="1000" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1001" max="1001" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1002" max="1002" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1003" max="1003" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1004" max="1004" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1005" max="1005" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1006" max="1006" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1007" max="1007" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1008" max="1008" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1009" max="1009" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1010" max="1010" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1011" max="1011" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1012" max="1012" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1013" max="1013" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1014" max="1014" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1015" max="1015" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1016" max="1016" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1017" max="1017" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1018" max="1018" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1019" max="1019" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1020" max="1020" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1021" max="1021" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1022" max="1022" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1023" max="1023" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1024" max="1024" width="11.5714285714286" customWidth="true" style="0"/>
+    <col min="1025" max="1025" width="11.5714285714286" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" customHeight="1" ht="12.8">
@@ -1585,47 +1582,45 @@
         <v>16</v>
       </c>
       <c r="B3" s="3">
-        <v>332</v>
+        <v>427</v>
       </c>
       <c r="C3"/>
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E3">
-        <v>824</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3">
-        <v>13404</v>
+        <v>21165</v>
       </c>
       <c r="G3" s="3">
-        <v>11713</v>
+        <v>19384</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
+      <c r="I3"/>
       <c r="J3">
-        <v>13404</v>
+        <v>21165</v>
       </c>
       <c r="K3" s="3">
-        <v>588</v>
+        <v>1348</v>
       </c>
       <c r="L3" s="3">
-        <v>5.02</v>
+        <v>6.95</v>
       </c>
       <c r="M3" s="3">
-        <v>10301</v>
+        <v>18001</v>
       </c>
       <c r="N3" s="3">
-        <v>87.95</v>
+        <v>92.87</v>
       </c>
       <c r="O3" s="3">
-        <v>824</v>
+        <v>35</v>
       </c>
       <c r="P3" s="3">
-        <v>7.03</v>
+        <v>0.18</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -2642,47 +2637,45 @@
         <v>18</v>
       </c>
       <c r="B4" s="3">
-        <v>246</v>
+        <v>345</v>
       </c>
       <c r="C4"/>
       <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>375</v>
       </c>
       <c r="F4" s="3">
-        <v>7991</v>
+        <v>17966</v>
       </c>
       <c r="G4" s="3">
-        <v>7302</v>
+        <v>16146</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>68</v>
-      </c>
+      <c r="I4"/>
       <c r="J4">
-        <v>8059</v>
+        <v>17966</v>
       </c>
       <c r="K4" s="3">
-        <v>415</v>
+        <v>861</v>
       </c>
       <c r="L4" s="3">
-        <v>5.68</v>
+        <v>5.33</v>
       </c>
       <c r="M4" s="3">
-        <v>6830</v>
+        <v>14910</v>
       </c>
       <c r="N4" s="3">
-        <v>93.54</v>
+        <v>92.34</v>
       </c>
       <c r="O4" s="3">
-        <v>56</v>
+        <v>375</v>
       </c>
       <c r="P4" s="3">
-        <v>0.77</v>
+        <v>2.32</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -3699,47 +3692,45 @@
         <v>20</v>
       </c>
       <c r="B5" s="3">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C5"/>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="F5" s="3">
-        <v>6326</v>
+        <v>7204</v>
       </c>
       <c r="G5" s="3">
-        <v>5465</v>
+        <v>6310</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>186</v>
-      </c>
+      <c r="I5"/>
       <c r="J5">
-        <v>6512</v>
+        <v>7204</v>
       </c>
       <c r="K5" s="3">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="L5" s="3">
-        <v>5.51</v>
+        <v>5.67</v>
       </c>
       <c r="M5" s="3">
-        <v>5131</v>
+        <v>5833</v>
       </c>
       <c r="N5" s="3">
-        <v>93.89</v>
+        <v>92.44</v>
       </c>
       <c r="O5" s="3">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="P5" s="3">
-        <v>0.6</v>
+        <v>1.89</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -4756,47 +4747,45 @@
         <v>22</v>
       </c>
       <c r="B6" s="3">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="C6"/>
       <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F6" s="3">
-        <v>6224</v>
+        <v>7042</v>
       </c>
       <c r="G6" s="3">
-        <v>5546</v>
+        <v>6166</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>65</v>
-      </c>
+      <c r="I6"/>
       <c r="J6">
-        <v>6289</v>
+        <v>7042</v>
       </c>
       <c r="K6" s="3">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="L6" s="3">
-        <v>6.69</v>
+        <v>6.73</v>
       </c>
       <c r="M6" s="3">
-        <v>5111</v>
+        <v>5696</v>
       </c>
       <c r="N6" s="3">
-        <v>92.16</v>
+        <v>92.38</v>
       </c>
       <c r="O6" s="3">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="P6" s="3">
-        <v>1.15</v>
+        <v>0.89</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -5813,47 +5802,45 @@
         <v>24</v>
       </c>
       <c r="B7" s="3">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="C7"/>
       <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3">
-        <v>4297</v>
+        <v>4202</v>
       </c>
       <c r="G7" s="3">
-        <v>3557</v>
+        <v>3817</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
+      <c r="I7"/>
       <c r="J7">
-        <v>4304</v>
+        <v>4202</v>
       </c>
       <c r="K7" s="3">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="L7" s="3">
-        <v>5.68</v>
+        <v>6.29</v>
       </c>
       <c r="M7" s="3">
-        <v>3048</v>
+        <v>3556</v>
       </c>
       <c r="N7" s="3">
-        <v>85.69</v>
+        <v>93.16</v>
       </c>
       <c r="O7" s="3">
-        <v>307</v>
+        <v>21</v>
       </c>
       <c r="P7" s="3">
-        <v>8.63</v>
+        <v>0.55</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -6870,47 +6857,45 @@
         <v>26</v>
       </c>
       <c r="B8" s="3">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C8"/>
       <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E8">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3">
-        <v>3033</v>
+        <v>3435</v>
       </c>
       <c r="G8" s="3">
-        <v>2726</v>
+        <v>3013</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>22</v>
-      </c>
+      <c r="I8"/>
       <c r="J8">
-        <v>3055</v>
+        <v>3435</v>
       </c>
       <c r="K8" s="3">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="L8" s="3">
-        <v>5.47</v>
+        <v>7.24</v>
       </c>
       <c r="M8" s="3">
-        <v>2430</v>
+        <v>2747</v>
       </c>
       <c r="N8" s="3">
-        <v>89.14</v>
+        <v>91.17</v>
       </c>
       <c r="O8" s="3">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="P8" s="3">
-        <v>5.39</v>
+        <v>1.59</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -7934,40 +7919,38 @@
         <v>29</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>388</v>
+        <v>527</v>
       </c>
       <c r="G9" s="3">
-        <v>388</v>
+        <v>512</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
+      <c r="I9"/>
       <c r="J9">
-        <v>388</v>
+        <v>527</v>
       </c>
       <c r="K9" s="3">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="3">
-        <v>4.9</v>
+        <v>5.86</v>
       </c>
       <c r="M9" s="3">
-        <v>368</v>
+        <v>478</v>
       </c>
       <c r="N9" s="3">
-        <v>94.85</v>
+        <v>93.36</v>
       </c>
       <c r="O9" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P9" s="3">
-        <v>0.26</v>
+        <v>0.78</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -8979,1063 +8962,6 @@
       <c r="AMJ9" s="3"/>
       <c r="AMK9" s="3"/>
     </row>
-    <row r="10" spans="1:1025" customHeight="1" ht="12.8">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="3"/>
-      <c r="BE10" s="3"/>
-      <c r="BF10" s="3"/>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="3"/>
-      <c r="BI10" s="3"/>
-      <c r="BJ10" s="3"/>
-      <c r="BK10" s="3"/>
-      <c r="BL10" s="3"/>
-      <c r="BM10" s="3"/>
-      <c r="BN10" s="3"/>
-      <c r="BO10" s="3"/>
-      <c r="BP10" s="3"/>
-      <c r="BQ10" s="3"/>
-      <c r="BR10" s="3"/>
-      <c r="BS10" s="3"/>
-      <c r="BT10" s="3"/>
-      <c r="BU10" s="3"/>
-      <c r="BV10" s="3"/>
-      <c r="BW10" s="3"/>
-      <c r="BX10" s="3"/>
-      <c r="BY10" s="3"/>
-      <c r="BZ10" s="3"/>
-      <c r="CA10" s="3"/>
-      <c r="CB10" s="3"/>
-      <c r="CC10" s="3"/>
-      <c r="CD10" s="3"/>
-      <c r="CE10" s="3"/>
-      <c r="CF10" s="3"/>
-      <c r="CG10" s="3"/>
-      <c r="CH10" s="3"/>
-      <c r="CI10" s="3"/>
-      <c r="CJ10" s="3"/>
-      <c r="CK10" s="3"/>
-      <c r="CL10" s="3"/>
-      <c r="CM10" s="3"/>
-      <c r="CN10" s="3"/>
-      <c r="CO10" s="3"/>
-      <c r="CP10" s="3"/>
-      <c r="CQ10" s="3"/>
-      <c r="CR10" s="3"/>
-      <c r="CS10" s="3"/>
-      <c r="CT10" s="3"/>
-      <c r="CU10" s="3"/>
-      <c r="CV10" s="3"/>
-      <c r="CW10" s="3"/>
-      <c r="CX10" s="3"/>
-      <c r="CY10" s="3"/>
-      <c r="CZ10" s="3"/>
-      <c r="DA10" s="3"/>
-      <c r="DB10" s="3"/>
-      <c r="DC10" s="3"/>
-      <c r="DD10" s="3"/>
-      <c r="DE10" s="3"/>
-      <c r="DF10" s="3"/>
-      <c r="DG10" s="3"/>
-      <c r="DH10" s="3"/>
-      <c r="DI10" s="3"/>
-      <c r="DJ10" s="3"/>
-      <c r="DK10" s="3"/>
-      <c r="DL10" s="3"/>
-      <c r="DM10" s="3"/>
-      <c r="DN10" s="3"/>
-      <c r="DO10" s="3"/>
-      <c r="DP10" s="3"/>
-      <c r="DQ10" s="3"/>
-      <c r="DR10" s="3"/>
-      <c r="DS10" s="3"/>
-      <c r="DT10" s="3"/>
-      <c r="DU10" s="3"/>
-      <c r="DV10" s="3"/>
-      <c r="DW10" s="3"/>
-      <c r="DX10" s="3"/>
-      <c r="DY10" s="3"/>
-      <c r="DZ10" s="3"/>
-      <c r="EA10" s="3"/>
-      <c r="EB10" s="3"/>
-      <c r="EC10" s="3"/>
-      <c r="ED10" s="3"/>
-      <c r="EE10" s="3"/>
-      <c r="EF10" s="3"/>
-      <c r="EG10" s="3"/>
-      <c r="EH10" s="3"/>
-      <c r="EI10" s="3"/>
-      <c r="EJ10" s="3"/>
-      <c r="EK10" s="3"/>
-      <c r="EL10" s="3"/>
-      <c r="EM10" s="3"/>
-      <c r="EN10" s="3"/>
-      <c r="EO10" s="3"/>
-      <c r="EP10" s="3"/>
-      <c r="EQ10" s="3"/>
-      <c r="ER10" s="3"/>
-      <c r="ES10" s="3"/>
-      <c r="ET10" s="3"/>
-      <c r="EU10" s="3"/>
-      <c r="EV10" s="3"/>
-      <c r="EW10" s="3"/>
-      <c r="EX10" s="3"/>
-      <c r="EY10" s="3"/>
-      <c r="EZ10" s="3"/>
-      <c r="FA10" s="3"/>
-      <c r="FB10" s="3"/>
-      <c r="FC10" s="3"/>
-      <c r="FD10" s="3"/>
-      <c r="FE10" s="3"/>
-      <c r="FF10" s="3"/>
-      <c r="FG10" s="3"/>
-      <c r="FH10" s="3"/>
-      <c r="FI10" s="3"/>
-      <c r="FJ10" s="3"/>
-      <c r="FK10" s="3"/>
-      <c r="FL10" s="3"/>
-      <c r="FM10" s="3"/>
-      <c r="FN10" s="3"/>
-      <c r="FO10" s="3"/>
-      <c r="FP10" s="3"/>
-      <c r="FQ10" s="3"/>
-      <c r="FR10" s="3"/>
-      <c r="FS10" s="3"/>
-      <c r="FT10" s="3"/>
-      <c r="FU10" s="3"/>
-      <c r="FV10" s="3"/>
-      <c r="FW10" s="3"/>
-      <c r="FX10" s="3"/>
-      <c r="FY10" s="3"/>
-      <c r="FZ10" s="3"/>
-      <c r="GA10" s="3"/>
-      <c r="GB10" s="3"/>
-      <c r="GC10" s="3"/>
-      <c r="GD10" s="3"/>
-      <c r="GE10" s="3"/>
-      <c r="GF10" s="3"/>
-      <c r="GG10" s="3"/>
-      <c r="GH10" s="3"/>
-      <c r="GI10" s="3"/>
-      <c r="GJ10" s="3"/>
-      <c r="GK10" s="3"/>
-      <c r="GL10" s="3"/>
-      <c r="GM10" s="3"/>
-      <c r="GN10" s="3"/>
-      <c r="GO10" s="3"/>
-      <c r="GP10" s="3"/>
-      <c r="GQ10" s="3"/>
-      <c r="GR10" s="3"/>
-      <c r="GS10" s="3"/>
-      <c r="GT10" s="3"/>
-      <c r="GU10" s="3"/>
-      <c r="GV10" s="3"/>
-      <c r="GW10" s="3"/>
-      <c r="GX10" s="3"/>
-      <c r="GY10" s="3"/>
-      <c r="GZ10" s="3"/>
-      <c r="HA10" s="3"/>
-      <c r="HB10" s="3"/>
-      <c r="HC10" s="3"/>
-      <c r="HD10" s="3"/>
-      <c r="HE10" s="3"/>
-      <c r="HF10" s="3"/>
-      <c r="HG10" s="3"/>
-      <c r="HH10" s="3"/>
-      <c r="HI10" s="3"/>
-      <c r="HJ10" s="3"/>
-      <c r="HK10" s="3"/>
-      <c r="HL10" s="3"/>
-      <c r="HM10" s="3"/>
-      <c r="HN10" s="3"/>
-      <c r="HO10" s="3"/>
-      <c r="HP10" s="3"/>
-      <c r="HQ10" s="3"/>
-      <c r="HR10" s="3"/>
-      <c r="HS10" s="3"/>
-      <c r="HT10" s="3"/>
-      <c r="HU10" s="3"/>
-      <c r="HV10" s="3"/>
-      <c r="HW10" s="3"/>
-      <c r="HX10" s="3"/>
-      <c r="HY10" s="3"/>
-      <c r="HZ10" s="3"/>
-      <c r="IA10" s="3"/>
-      <c r="IB10" s="3"/>
-      <c r="IC10" s="3"/>
-      <c r="ID10" s="3"/>
-      <c r="IE10" s="3"/>
-      <c r="IF10" s="3"/>
-      <c r="IG10" s="3"/>
-      <c r="IH10" s="3"/>
-      <c r="II10" s="3"/>
-      <c r="IJ10" s="3"/>
-      <c r="IK10" s="3"/>
-      <c r="IL10" s="3"/>
-      <c r="IM10" s="3"/>
-      <c r="IN10" s="3"/>
-      <c r="IO10" s="3"/>
-      <c r="IP10" s="3"/>
-      <c r="IQ10" s="3"/>
-      <c r="IR10" s="3"/>
-      <c r="IS10" s="3"/>
-      <c r="IT10" s="3"/>
-      <c r="IU10" s="3"/>
-      <c r="IV10" s="3"/>
-      <c r="IW10" s="3"/>
-      <c r="IX10" s="3"/>
-      <c r="IY10" s="3"/>
-      <c r="IZ10" s="3"/>
-      <c r="JA10" s="3"/>
-      <c r="JB10" s="3"/>
-      <c r="JC10" s="3"/>
-      <c r="JD10" s="3"/>
-      <c r="JE10" s="3"/>
-      <c r="JF10" s="3"/>
-      <c r="JG10" s="3"/>
-      <c r="JH10" s="3"/>
-      <c r="JI10" s="3"/>
-      <c r="JJ10" s="3"/>
-      <c r="JK10" s="3"/>
-      <c r="JL10" s="3"/>
-      <c r="JM10" s="3"/>
-      <c r="JN10" s="3"/>
-      <c r="JO10" s="3"/>
-      <c r="JP10" s="3"/>
-      <c r="JQ10" s="3"/>
-      <c r="JR10" s="3"/>
-      <c r="JS10" s="3"/>
-      <c r="JT10" s="3"/>
-      <c r="JU10" s="3"/>
-      <c r="JV10" s="3"/>
-      <c r="JW10" s="3"/>
-      <c r="JX10" s="3"/>
-      <c r="JY10" s="3"/>
-      <c r="JZ10" s="3"/>
-      <c r="KA10" s="3"/>
-      <c r="KB10" s="3"/>
-      <c r="KC10" s="3"/>
-      <c r="KD10" s="3"/>
-      <c r="KE10" s="3"/>
-      <c r="KF10" s="3"/>
-      <c r="KG10" s="3"/>
-      <c r="KH10" s="3"/>
-      <c r="KI10" s="3"/>
-      <c r="KJ10" s="3"/>
-      <c r="KK10" s="3"/>
-      <c r="KL10" s="3"/>
-      <c r="KM10" s="3"/>
-      <c r="KN10" s="3"/>
-      <c r="KO10" s="3"/>
-      <c r="KP10" s="3"/>
-      <c r="KQ10" s="3"/>
-      <c r="KR10" s="3"/>
-      <c r="KS10" s="3"/>
-      <c r="KT10" s="3"/>
-      <c r="KU10" s="3"/>
-      <c r="KV10" s="3"/>
-      <c r="KW10" s="3"/>
-      <c r="KX10" s="3"/>
-      <c r="KY10" s="3"/>
-      <c r="KZ10" s="3"/>
-      <c r="LA10" s="3"/>
-      <c r="LB10" s="3"/>
-      <c r="LC10" s="3"/>
-      <c r="LD10" s="3"/>
-      <c r="LE10" s="3"/>
-      <c r="LF10" s="3"/>
-      <c r="LG10" s="3"/>
-      <c r="LH10" s="3"/>
-      <c r="LI10" s="3"/>
-      <c r="LJ10" s="3"/>
-      <c r="LK10" s="3"/>
-      <c r="LL10" s="3"/>
-      <c r="LM10" s="3"/>
-      <c r="LN10" s="3"/>
-      <c r="LO10" s="3"/>
-      <c r="LP10" s="3"/>
-      <c r="LQ10" s="3"/>
-      <c r="LR10" s="3"/>
-      <c r="LS10" s="3"/>
-      <c r="LT10" s="3"/>
-      <c r="LU10" s="3"/>
-      <c r="LV10" s="3"/>
-      <c r="LW10" s="3"/>
-      <c r="LX10" s="3"/>
-      <c r="LY10" s="3"/>
-      <c r="LZ10" s="3"/>
-      <c r="MA10" s="3"/>
-      <c r="MB10" s="3"/>
-      <c r="MC10" s="3"/>
-      <c r="MD10" s="3"/>
-      <c r="ME10" s="3"/>
-      <c r="MF10" s="3"/>
-      <c r="MG10" s="3"/>
-      <c r="MH10" s="3"/>
-      <c r="MI10" s="3"/>
-      <c r="MJ10" s="3"/>
-      <c r="MK10" s="3"/>
-      <c r="ML10" s="3"/>
-      <c r="MM10" s="3"/>
-      <c r="MN10" s="3"/>
-      <c r="MO10" s="3"/>
-      <c r="MP10" s="3"/>
-      <c r="MQ10" s="3"/>
-      <c r="MR10" s="3"/>
-      <c r="MS10" s="3"/>
-      <c r="MT10" s="3"/>
-      <c r="MU10" s="3"/>
-      <c r="MV10" s="3"/>
-      <c r="MW10" s="3"/>
-      <c r="MX10" s="3"/>
-      <c r="MY10" s="3"/>
-      <c r="MZ10" s="3"/>
-      <c r="NA10" s="3"/>
-      <c r="NB10" s="3"/>
-      <c r="NC10" s="3"/>
-      <c r="ND10" s="3"/>
-      <c r="NE10" s="3"/>
-      <c r="NF10" s="3"/>
-      <c r="NG10" s="3"/>
-      <c r="NH10" s="3"/>
-      <c r="NI10" s="3"/>
-      <c r="NJ10" s="3"/>
-      <c r="NK10" s="3"/>
-      <c r="NL10" s="3"/>
-      <c r="NM10" s="3"/>
-      <c r="NN10" s="3"/>
-      <c r="NO10" s="3"/>
-      <c r="NP10" s="3"/>
-      <c r="NQ10" s="3"/>
-      <c r="NR10" s="3"/>
-      <c r="NS10" s="3"/>
-      <c r="NT10" s="3"/>
-      <c r="NU10" s="3"/>
-      <c r="NV10" s="3"/>
-      <c r="NW10" s="3"/>
-      <c r="NX10" s="3"/>
-      <c r="NY10" s="3"/>
-      <c r="NZ10" s="3"/>
-      <c r="OA10" s="3"/>
-      <c r="OB10" s="3"/>
-      <c r="OC10" s="3"/>
-      <c r="OD10" s="3"/>
-      <c r="OE10" s="3"/>
-      <c r="OF10" s="3"/>
-      <c r="OG10" s="3"/>
-      <c r="OH10" s="3"/>
-      <c r="OI10" s="3"/>
-      <c r="OJ10" s="3"/>
-      <c r="OK10" s="3"/>
-      <c r="OL10" s="3"/>
-      <c r="OM10" s="3"/>
-      <c r="ON10" s="3"/>
-      <c r="OO10" s="3"/>
-      <c r="OP10" s="3"/>
-      <c r="OQ10" s="3"/>
-      <c r="OR10" s="3"/>
-      <c r="OS10" s="3"/>
-      <c r="OT10" s="3"/>
-      <c r="OU10" s="3"/>
-      <c r="OV10" s="3"/>
-      <c r="OW10" s="3"/>
-      <c r="OX10" s="3"/>
-      <c r="OY10" s="3"/>
-      <c r="OZ10" s="3"/>
-      <c r="PA10" s="3"/>
-      <c r="PB10" s="3"/>
-      <c r="PC10" s="3"/>
-      <c r="PD10" s="3"/>
-      <c r="PE10" s="3"/>
-      <c r="PF10" s="3"/>
-      <c r="PG10" s="3"/>
-      <c r="PH10" s="3"/>
-      <c r="PI10" s="3"/>
-      <c r="PJ10" s="3"/>
-      <c r="PK10" s="3"/>
-      <c r="PL10" s="3"/>
-      <c r="PM10" s="3"/>
-      <c r="PN10" s="3"/>
-      <c r="PO10" s="3"/>
-      <c r="PP10" s="3"/>
-      <c r="PQ10" s="3"/>
-      <c r="PR10" s="3"/>
-      <c r="PS10" s="3"/>
-      <c r="PT10" s="3"/>
-      <c r="PU10" s="3"/>
-      <c r="PV10" s="3"/>
-      <c r="PW10" s="3"/>
-      <c r="PX10" s="3"/>
-      <c r="PY10" s="3"/>
-      <c r="PZ10" s="3"/>
-      <c r="QA10" s="3"/>
-      <c r="QB10" s="3"/>
-      <c r="QC10" s="3"/>
-      <c r="QD10" s="3"/>
-      <c r="QE10" s="3"/>
-      <c r="QF10" s="3"/>
-      <c r="QG10" s="3"/>
-      <c r="QH10" s="3"/>
-      <c r="QI10" s="3"/>
-      <c r="QJ10" s="3"/>
-      <c r="QK10" s="3"/>
-      <c r="QL10" s="3"/>
-      <c r="QM10" s="3"/>
-      <c r="QN10" s="3"/>
-      <c r="QO10" s="3"/>
-      <c r="QP10" s="3"/>
-      <c r="QQ10" s="3"/>
-      <c r="QR10" s="3"/>
-      <c r="QS10" s="3"/>
-      <c r="QT10" s="3"/>
-      <c r="QU10" s="3"/>
-      <c r="QV10" s="3"/>
-      <c r="QW10" s="3"/>
-      <c r="QX10" s="3"/>
-      <c r="QY10" s="3"/>
-      <c r="QZ10" s="3"/>
-      <c r="RA10" s="3"/>
-      <c r="RB10" s="3"/>
-      <c r="RC10" s="3"/>
-      <c r="RD10" s="3"/>
-      <c r="RE10" s="3"/>
-      <c r="RF10" s="3"/>
-      <c r="RG10" s="3"/>
-      <c r="RH10" s="3"/>
-      <c r="RI10" s="3"/>
-      <c r="RJ10" s="3"/>
-      <c r="RK10" s="3"/>
-      <c r="RL10" s="3"/>
-      <c r="RM10" s="3"/>
-      <c r="RN10" s="3"/>
-      <c r="RO10" s="3"/>
-      <c r="RP10" s="3"/>
-      <c r="RQ10" s="3"/>
-      <c r="RR10" s="3"/>
-      <c r="RS10" s="3"/>
-      <c r="RT10" s="3"/>
-      <c r="RU10" s="3"/>
-      <c r="RV10" s="3"/>
-      <c r="RW10" s="3"/>
-      <c r="RX10" s="3"/>
-      <c r="RY10" s="3"/>
-      <c r="RZ10" s="3"/>
-      <c r="SA10" s="3"/>
-      <c r="SB10" s="3"/>
-      <c r="SC10" s="3"/>
-      <c r="SD10" s="3"/>
-      <c r="SE10" s="3"/>
-      <c r="SF10" s="3"/>
-      <c r="SG10" s="3"/>
-      <c r="SH10" s="3"/>
-      <c r="SI10" s="3"/>
-      <c r="SJ10" s="3"/>
-      <c r="SK10" s="3"/>
-      <c r="SL10" s="3"/>
-      <c r="SM10" s="3"/>
-      <c r="SN10" s="3"/>
-      <c r="SO10" s="3"/>
-      <c r="SP10" s="3"/>
-      <c r="SQ10" s="3"/>
-      <c r="SR10" s="3"/>
-      <c r="SS10" s="3"/>
-      <c r="ST10" s="3"/>
-      <c r="SU10" s="3"/>
-      <c r="SV10" s="3"/>
-      <c r="SW10" s="3"/>
-      <c r="SX10" s="3"/>
-      <c r="SY10" s="3"/>
-      <c r="SZ10" s="3"/>
-      <c r="TA10" s="3"/>
-      <c r="TB10" s="3"/>
-      <c r="TC10" s="3"/>
-      <c r="TD10" s="3"/>
-      <c r="TE10" s="3"/>
-      <c r="TF10" s="3"/>
-      <c r="TG10" s="3"/>
-      <c r="TH10" s="3"/>
-      <c r="TI10" s="3"/>
-      <c r="TJ10" s="3"/>
-      <c r="TK10" s="3"/>
-      <c r="TL10" s="3"/>
-      <c r="TM10" s="3"/>
-      <c r="TN10" s="3"/>
-      <c r="TO10" s="3"/>
-      <c r="TP10" s="3"/>
-      <c r="TQ10" s="3"/>
-      <c r="TR10" s="3"/>
-      <c r="TS10" s="3"/>
-      <c r="TT10" s="3"/>
-      <c r="TU10" s="3"/>
-      <c r="TV10" s="3"/>
-      <c r="TW10" s="3"/>
-      <c r="TX10" s="3"/>
-      <c r="TY10" s="3"/>
-      <c r="TZ10" s="3"/>
-      <c r="UA10" s="3"/>
-      <c r="UB10" s="3"/>
-      <c r="UC10" s="3"/>
-      <c r="UD10" s="3"/>
-      <c r="UE10" s="3"/>
-      <c r="UF10" s="3"/>
-      <c r="UG10" s="3"/>
-      <c r="UH10" s="3"/>
-      <c r="UI10" s="3"/>
-      <c r="UJ10" s="3"/>
-      <c r="UK10" s="3"/>
-      <c r="UL10" s="3"/>
-      <c r="UM10" s="3"/>
-      <c r="UN10" s="3"/>
-      <c r="UO10" s="3"/>
-      <c r="UP10" s="3"/>
-      <c r="UQ10" s="3"/>
-      <c r="UR10" s="3"/>
-      <c r="US10" s="3"/>
-      <c r="UT10" s="3"/>
-      <c r="UU10" s="3"/>
-      <c r="UV10" s="3"/>
-      <c r="UW10" s="3"/>
-      <c r="UX10" s="3"/>
-      <c r="UY10" s="3"/>
-      <c r="UZ10" s="3"/>
-      <c r="VA10" s="3"/>
-      <c r="VB10" s="3"/>
-      <c r="VC10" s="3"/>
-      <c r="VD10" s="3"/>
-      <c r="VE10" s="3"/>
-      <c r="VF10" s="3"/>
-      <c r="VG10" s="3"/>
-      <c r="VH10" s="3"/>
-      <c r="VI10" s="3"/>
-      <c r="VJ10" s="3"/>
-      <c r="VK10" s="3"/>
-      <c r="VL10" s="3"/>
-      <c r="VM10" s="3"/>
-      <c r="VN10" s="3"/>
-      <c r="VO10" s="3"/>
-      <c r="VP10" s="3"/>
-      <c r="VQ10" s="3"/>
-      <c r="VR10" s="3"/>
-      <c r="VS10" s="3"/>
-      <c r="VT10" s="3"/>
-      <c r="VU10" s="3"/>
-      <c r="VV10" s="3"/>
-      <c r="VW10" s="3"/>
-      <c r="VX10" s="3"/>
-      <c r="VY10" s="3"/>
-      <c r="VZ10" s="3"/>
-      <c r="WA10" s="3"/>
-      <c r="WB10" s="3"/>
-      <c r="WC10" s="3"/>
-      <c r="WD10" s="3"/>
-      <c r="WE10" s="3"/>
-      <c r="WF10" s="3"/>
-      <c r="WG10" s="3"/>
-      <c r="WH10" s="3"/>
-      <c r="WI10" s="3"/>
-      <c r="WJ10" s="3"/>
-      <c r="WK10" s="3"/>
-      <c r="WL10" s="3"/>
-      <c r="WM10" s="3"/>
-      <c r="WN10" s="3"/>
-      <c r="WO10" s="3"/>
-      <c r="WP10" s="3"/>
-      <c r="WQ10" s="3"/>
-      <c r="WR10" s="3"/>
-      <c r="WS10" s="3"/>
-      <c r="WT10" s="3"/>
-      <c r="WU10" s="3"/>
-      <c r="WV10" s="3"/>
-      <c r="WW10" s="3"/>
-      <c r="WX10" s="3"/>
-      <c r="WY10" s="3"/>
-      <c r="WZ10" s="3"/>
-      <c r="XA10" s="3"/>
-      <c r="XB10" s="3"/>
-      <c r="XC10" s="3"/>
-      <c r="XD10" s="3"/>
-      <c r="XE10" s="3"/>
-      <c r="XF10" s="3"/>
-      <c r="XG10" s="3"/>
-      <c r="XH10" s="3"/>
-      <c r="XI10" s="3"/>
-      <c r="XJ10" s="3"/>
-      <c r="XK10" s="3"/>
-      <c r="XL10" s="3"/>
-      <c r="XM10" s="3"/>
-      <c r="XN10" s="3"/>
-      <c r="XO10" s="3"/>
-      <c r="XP10" s="3"/>
-      <c r="XQ10" s="3"/>
-      <c r="XR10" s="3"/>
-      <c r="XS10" s="3"/>
-      <c r="XT10" s="3"/>
-      <c r="XU10" s="3"/>
-      <c r="XV10" s="3"/>
-      <c r="XW10" s="3"/>
-      <c r="XX10" s="3"/>
-      <c r="XY10" s="3"/>
-      <c r="XZ10" s="3"/>
-      <c r="YA10" s="3"/>
-      <c r="YB10" s="3"/>
-      <c r="YC10" s="3"/>
-      <c r="YD10" s="3"/>
-      <c r="YE10" s="3"/>
-      <c r="YF10" s="3"/>
-      <c r="YG10" s="3"/>
-      <c r="YH10" s="3"/>
-      <c r="YI10" s="3"/>
-      <c r="YJ10" s="3"/>
-      <c r="YK10" s="3"/>
-      <c r="YL10" s="3"/>
-      <c r="YM10" s="3"/>
-      <c r="YN10" s="3"/>
-      <c r="YO10" s="3"/>
-      <c r="YP10" s="3"/>
-      <c r="YQ10" s="3"/>
-      <c r="YR10" s="3"/>
-      <c r="YS10" s="3"/>
-      <c r="YT10" s="3"/>
-      <c r="YU10" s="3"/>
-      <c r="YV10" s="3"/>
-      <c r="YW10" s="3"/>
-      <c r="YX10" s="3"/>
-      <c r="YY10" s="3"/>
-      <c r="YZ10" s="3"/>
-      <c r="ZA10" s="3"/>
-      <c r="ZB10" s="3"/>
-      <c r="ZC10" s="3"/>
-      <c r="ZD10" s="3"/>
-      <c r="ZE10" s="3"/>
-      <c r="ZF10" s="3"/>
-      <c r="ZG10" s="3"/>
-      <c r="ZH10" s="3"/>
-      <c r="ZI10" s="3"/>
-      <c r="ZJ10" s="3"/>
-      <c r="ZK10" s="3"/>
-      <c r="ZL10" s="3"/>
-      <c r="ZM10" s="3"/>
-      <c r="ZN10" s="3"/>
-      <c r="ZO10" s="3"/>
-      <c r="ZP10" s="3"/>
-      <c r="ZQ10" s="3"/>
-      <c r="ZR10" s="3"/>
-      <c r="ZS10" s="3"/>
-      <c r="ZT10" s="3"/>
-      <c r="ZU10" s="3"/>
-      <c r="ZV10" s="3"/>
-      <c r="ZW10" s="3"/>
-      <c r="ZX10" s="3"/>
-      <c r="ZY10" s="3"/>
-      <c r="ZZ10" s="3"/>
-      <c r="AAA10" s="3"/>
-      <c r="AAB10" s="3"/>
-      <c r="AAC10" s="3"/>
-      <c r="AAD10" s="3"/>
-      <c r="AAE10" s="3"/>
-      <c r="AAF10" s="3"/>
-      <c r="AAG10" s="3"/>
-      <c r="AAH10" s="3"/>
-      <c r="AAI10" s="3"/>
-      <c r="AAJ10" s="3"/>
-      <c r="AAK10" s="3"/>
-      <c r="AAL10" s="3"/>
-      <c r="AAM10" s="3"/>
-      <c r="AAN10" s="3"/>
-      <c r="AAO10" s="3"/>
-      <c r="AAP10" s="3"/>
-      <c r="AAQ10" s="3"/>
-      <c r="AAR10" s="3"/>
-      <c r="AAS10" s="3"/>
-      <c r="AAT10" s="3"/>
-      <c r="AAU10" s="3"/>
-      <c r="AAV10" s="3"/>
-      <c r="AAW10" s="3"/>
-      <c r="AAX10" s="3"/>
-      <c r="AAY10" s="3"/>
-      <c r="AAZ10" s="3"/>
-      <c r="ABA10" s="3"/>
-      <c r="ABB10" s="3"/>
-      <c r="ABC10" s="3"/>
-      <c r="ABD10" s="3"/>
-      <c r="ABE10" s="3"/>
-      <c r="ABF10" s="3"/>
-      <c r="ABG10" s="3"/>
-      <c r="ABH10" s="3"/>
-      <c r="ABI10" s="3"/>
-      <c r="ABJ10" s="3"/>
-      <c r="ABK10" s="3"/>
-      <c r="ABL10" s="3"/>
-      <c r="ABM10" s="3"/>
-      <c r="ABN10" s="3"/>
-      <c r="ABO10" s="3"/>
-      <c r="ABP10" s="3"/>
-      <c r="ABQ10" s="3"/>
-      <c r="ABR10" s="3"/>
-      <c r="ABS10" s="3"/>
-      <c r="ABT10" s="3"/>
-      <c r="ABU10" s="3"/>
-      <c r="ABV10" s="3"/>
-      <c r="ABW10" s="3"/>
-      <c r="ABX10" s="3"/>
-      <c r="ABY10" s="3"/>
-      <c r="ABZ10" s="3"/>
-      <c r="ACA10" s="3"/>
-      <c r="ACB10" s="3"/>
-      <c r="ACC10" s="3"/>
-      <c r="ACD10" s="3"/>
-      <c r="ACE10" s="3"/>
-      <c r="ACF10" s="3"/>
-      <c r="ACG10" s="3"/>
-      <c r="ACH10" s="3"/>
-      <c r="ACI10" s="3"/>
-      <c r="ACJ10" s="3"/>
-      <c r="ACK10" s="3"/>
-      <c r="ACL10" s="3"/>
-      <c r="ACM10" s="3"/>
-      <c r="ACN10" s="3"/>
-      <c r="ACO10" s="3"/>
-      <c r="ACP10" s="3"/>
-      <c r="ACQ10" s="3"/>
-      <c r="ACR10" s="3"/>
-      <c r="ACS10" s="3"/>
-      <c r="ACT10" s="3"/>
-      <c r="ACU10" s="3"/>
-      <c r="ACV10" s="3"/>
-      <c r="ACW10" s="3"/>
-      <c r="ACX10" s="3"/>
-      <c r="ACY10" s="3"/>
-      <c r="ACZ10" s="3"/>
-      <c r="ADA10" s="3"/>
-      <c r="ADB10" s="3"/>
-      <c r="ADC10" s="3"/>
-      <c r="ADD10" s="3"/>
-      <c r="ADE10" s="3"/>
-      <c r="ADF10" s="3"/>
-      <c r="ADG10" s="3"/>
-      <c r="ADH10" s="3"/>
-      <c r="ADI10" s="3"/>
-      <c r="ADJ10" s="3"/>
-      <c r="ADK10" s="3"/>
-      <c r="ADL10" s="3"/>
-      <c r="ADM10" s="3"/>
-      <c r="ADN10" s="3"/>
-      <c r="ADO10" s="3"/>
-      <c r="ADP10" s="3"/>
-      <c r="ADQ10" s="3"/>
-      <c r="ADR10" s="3"/>
-      <c r="ADS10" s="3"/>
-      <c r="ADT10" s="3"/>
-      <c r="ADU10" s="3"/>
-      <c r="ADV10" s="3"/>
-      <c r="ADW10" s="3"/>
-      <c r="ADX10" s="3"/>
-      <c r="ADY10" s="3"/>
-      <c r="ADZ10" s="3"/>
-      <c r="AEA10" s="3"/>
-      <c r="AEB10" s="3"/>
-      <c r="AEC10" s="3"/>
-      <c r="AED10" s="3"/>
-      <c r="AEE10" s="3"/>
-      <c r="AEF10" s="3"/>
-      <c r="AEG10" s="3"/>
-      <c r="AEH10" s="3"/>
-      <c r="AEI10" s="3"/>
-      <c r="AEJ10" s="3"/>
-      <c r="AEK10" s="3"/>
-      <c r="AEL10" s="3"/>
-      <c r="AEM10" s="3"/>
-      <c r="AEN10" s="3"/>
-      <c r="AEO10" s="3"/>
-      <c r="AEP10" s="3"/>
-      <c r="AEQ10" s="3"/>
-      <c r="AER10" s="3"/>
-      <c r="AES10" s="3"/>
-      <c r="AET10" s="3"/>
-      <c r="AEU10" s="3"/>
-      <c r="AEV10" s="3"/>
-      <c r="AEW10" s="3"/>
-      <c r="AEX10" s="3"/>
-      <c r="AEY10" s="3"/>
-      <c r="AEZ10" s="3"/>
-      <c r="AFA10" s="3"/>
-      <c r="AFB10" s="3"/>
-      <c r="AFC10" s="3"/>
-      <c r="AFD10" s="3"/>
-      <c r="AFE10" s="3"/>
-      <c r="AFF10" s="3"/>
-      <c r="AFG10" s="3"/>
-      <c r="AFH10" s="3"/>
-      <c r="AFI10" s="3"/>
-      <c r="AFJ10" s="3"/>
-      <c r="AFK10" s="3"/>
-      <c r="AFL10" s="3"/>
-      <c r="AFM10" s="3"/>
-      <c r="AFN10" s="3"/>
-      <c r="AFO10" s="3"/>
-      <c r="AFP10" s="3"/>
-      <c r="AFQ10" s="3"/>
-      <c r="AFR10" s="3"/>
-      <c r="AFS10" s="3"/>
-      <c r="AFT10" s="3"/>
-      <c r="AFU10" s="3"/>
-      <c r="AFV10" s="3"/>
-      <c r="AFW10" s="3"/>
-      <c r="AFX10" s="3"/>
-      <c r="AFY10" s="3"/>
-      <c r="AFZ10" s="3"/>
-      <c r="AGA10" s="3"/>
-      <c r="AGB10" s="3"/>
-      <c r="AGC10" s="3"/>
-      <c r="AGD10" s="3"/>
-      <c r="AGE10" s="3"/>
-      <c r="AGF10" s="3"/>
-      <c r="AGG10" s="3"/>
-      <c r="AGH10" s="3"/>
-      <c r="AGI10" s="3"/>
-      <c r="AGJ10" s="3"/>
-      <c r="AGK10" s="3"/>
-      <c r="AGL10" s="3"/>
-      <c r="AGM10" s="3"/>
-      <c r="AGN10" s="3"/>
-      <c r="AGO10" s="3"/>
-      <c r="AGP10" s="3"/>
-      <c r="AGQ10" s="3"/>
-      <c r="AGR10" s="3"/>
-      <c r="AGS10" s="3"/>
-      <c r="AGT10" s="3"/>
-      <c r="AGU10" s="3"/>
-      <c r="AGV10" s="3"/>
-      <c r="AGW10" s="3"/>
-      <c r="AGX10" s="3"/>
-      <c r="AGY10" s="3"/>
-      <c r="AGZ10" s="3"/>
-      <c r="AHA10" s="3"/>
-      <c r="AHB10" s="3"/>
-      <c r="AHC10" s="3"/>
-      <c r="AHD10" s="3"/>
-      <c r="AHE10" s="3"/>
-      <c r="AHF10" s="3"/>
-      <c r="AHG10" s="3"/>
-      <c r="AHH10" s="3"/>
-      <c r="AHI10" s="3"/>
-      <c r="AHJ10" s="3"/>
-      <c r="AHK10" s="3"/>
-      <c r="AHL10" s="3"/>
-      <c r="AHM10" s="3"/>
-      <c r="AHN10" s="3"/>
-      <c r="AHO10" s="3"/>
-      <c r="AHP10" s="3"/>
-      <c r="AHQ10" s="3"/>
-      <c r="AHR10" s="3"/>
-      <c r="AHS10" s="3"/>
-      <c r="AHT10" s="3"/>
-      <c r="AHU10" s="3"/>
-      <c r="AHV10" s="3"/>
-      <c r="AHW10" s="3"/>
-      <c r="AHX10" s="3"/>
-      <c r="AHY10" s="3"/>
-      <c r="AHZ10" s="3"/>
-      <c r="AIA10" s="3"/>
-      <c r="AIB10" s="3"/>
-      <c r="AIC10" s="3"/>
-      <c r="AID10" s="3"/>
-      <c r="AIE10" s="3"/>
-      <c r="AIF10" s="3"/>
-      <c r="AIG10" s="3"/>
-      <c r="AIH10" s="3"/>
-      <c r="AII10" s="3"/>
-      <c r="AIJ10" s="3"/>
-      <c r="AIK10" s="3"/>
-      <c r="AIL10" s="3"/>
-      <c r="AIM10" s="3"/>
-      <c r="AIN10" s="3"/>
-      <c r="AIO10" s="3"/>
-      <c r="AIP10" s="3"/>
-      <c r="AIQ10" s="3"/>
-      <c r="AIR10" s="3"/>
-      <c r="AIS10" s="3"/>
-      <c r="AIT10" s="3"/>
-      <c r="AIU10" s="3"/>
-      <c r="AIV10" s="3"/>
-      <c r="AIW10" s="3"/>
-      <c r="AIX10" s="3"/>
-      <c r="AIY10" s="3"/>
-      <c r="AIZ10" s="3"/>
-      <c r="AJA10" s="3"/>
-      <c r="AJB10" s="3"/>
-      <c r="AJC10" s="3"/>
-      <c r="AJD10" s="3"/>
-      <c r="AJE10" s="3"/>
-      <c r="AJF10" s="3"/>
-      <c r="AJG10" s="3"/>
-      <c r="AJH10" s="3"/>
-      <c r="AJI10" s="3"/>
-      <c r="AJJ10" s="3"/>
-      <c r="AJK10" s="3"/>
-      <c r="AJL10" s="3"/>
-      <c r="AJM10" s="3"/>
-      <c r="AJN10" s="3"/>
-      <c r="AJO10" s="3"/>
-      <c r="AJP10" s="3"/>
-      <c r="AJQ10" s="3"/>
-      <c r="AJR10" s="3"/>
-      <c r="AJS10" s="3"/>
-      <c r="AJT10" s="3"/>
-      <c r="AJU10" s="3"/>
-      <c r="AJV10" s="3"/>
-      <c r="AJW10" s="3"/>
-      <c r="AJX10" s="3"/>
-      <c r="AJY10" s="3"/>
-      <c r="AJZ10" s="3"/>
-      <c r="AKA10" s="3"/>
-      <c r="AKB10" s="3"/>
-      <c r="AKC10" s="3"/>
-      <c r="AKD10" s="3"/>
-      <c r="AKE10" s="3"/>
-      <c r="AKF10" s="3"/>
-      <c r="AKG10" s="3"/>
-      <c r="AKH10" s="3"/>
-      <c r="AKI10" s="3"/>
-      <c r="AKJ10" s="3"/>
-      <c r="AKK10" s="3"/>
-      <c r="AKL10" s="3"/>
-      <c r="AKM10" s="3"/>
-      <c r="AKN10" s="3"/>
-      <c r="AKO10" s="3"/>
-      <c r="AKP10" s="3"/>
-      <c r="AKQ10" s="3"/>
-      <c r="AKR10" s="3"/>
-      <c r="AKS10" s="3"/>
-      <c r="AKT10" s="3"/>
-      <c r="AKU10" s="3"/>
-      <c r="AKV10" s="3"/>
-      <c r="AKW10" s="3"/>
-      <c r="AKX10" s="3"/>
-      <c r="AKY10" s="3"/>
-      <c r="AKZ10" s="3"/>
-      <c r="ALA10" s="3"/>
-      <c r="ALB10" s="3"/>
-      <c r="ALC10" s="3"/>
-      <c r="ALD10" s="3"/>
-      <c r="ALE10" s="3"/>
-      <c r="ALF10" s="3"/>
-      <c r="ALG10" s="3"/>
-      <c r="ALH10" s="3"/>
-      <c r="ALI10" s="3"/>
-      <c r="ALJ10" s="3"/>
-      <c r="ALK10" s="3"/>
-      <c r="ALL10" s="3"/>
-      <c r="ALM10" s="3"/>
-      <c r="ALN10" s="3"/>
-      <c r="ALO10" s="3"/>
-      <c r="ALP10" s="3"/>
-      <c r="ALQ10" s="3"/>
-      <c r="ALR10" s="3"/>
-      <c r="ALS10" s="3"/>
-      <c r="ALT10" s="3"/>
-      <c r="ALU10" s="3"/>
-      <c r="ALV10" s="3"/>
-      <c r="ALW10" s="3"/>
-      <c r="ALX10" s="3"/>
-      <c r="ALY10" s="3"/>
-      <c r="ALZ10" s="3"/>
-      <c r="AMA10" s="3"/>
-      <c r="AMB10" s="3"/>
-      <c r="AMC10" s="3"/>
-      <c r="AMD10" s="3"/>
-      <c r="AME10" s="3"/>
-      <c r="AMF10" s="3"/>
-      <c r="AMG10" s="3"/>
-      <c r="AMH10" s="3"/>
-      <c r="AMI10" s="3"/>
-      <c r="AMJ10" s="3"/>
-      <c r="AMK10" s="3"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
@@ -10051,7 +8977,7 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
